--- a/Data_Raw/Manually_Collected_Data_Version2.xlsx
+++ b/Data_Raw/Manually_Collected_Data_Version2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamesh\GIT\Benefish_Data_Collection\Data_Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650B375D-4A7E-412D-B750-1B1438483021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C2EF34-126C-4552-92C8-6AF79B789C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="913" activeTab="7" xr2:uid="{DADAB8C2-813A-4B64-AE11-C65CAFCECFBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="913" xr2:uid="{DADAB8C2-813A-4B64-AE11-C65CAFCECFBF}"/>
   </bookViews>
   <sheets>
     <sheet name="American_Samoa" sheetId="1" r:id="rId1"/>
@@ -7703,6 +7703,42 @@
     <xf numFmtId="3" fontId="8" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -7724,43 +7760,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7781,33 +7808,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7829,6 +7829,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7847,36 +7862,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7958,39 +7958,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -8003,6 +8003,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -8015,33 +8036,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8057,18 +8069,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8084,42 +8084,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8141,6 +8141,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8159,56 +8165,50 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8547,8 +8547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44DAC58-3F55-4C4C-A726-8B4686980DA4}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78:H83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8867,20 +8867,20 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="415" t="s">
+      <c r="A18" s="427" t="s">
         <v>890</v>
       </c>
-      <c r="B18" s="416"/>
-      <c r="C18" s="416"/>
-      <c r="D18" s="416"/>
-      <c r="E18" s="416"/>
-      <c r="F18" s="417"/>
+      <c r="B18" s="428"/>
+      <c r="C18" s="428"/>
+      <c r="D18" s="428"/>
+      <c r="E18" s="428"/>
+      <c r="F18" s="429"/>
       <c r="G18" s="252"/>
-      <c r="H18" s="418" t="s">
+      <c r="H18" s="430" t="s">
         <v>891</v>
       </c>
-      <c r="I18" s="418"/>
-      <c r="J18" s="418"/>
+      <c r="I18" s="430"/>
+      <c r="J18" s="430"/>
       <c r="K18" s="331"/>
       <c r="L18" s="11" t="s">
         <v>8</v>
@@ -9389,7 +9389,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>353</v>
@@ -9405,7 +9405,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="419" t="s">
+      <c r="A41" s="412" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="7">
@@ -9425,7 +9425,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="420"/>
+      <c r="A42" s="413"/>
       <c r="B42" s="7">
         <v>2007</v>
       </c>
@@ -9443,7 +9443,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="420"/>
+      <c r="A43" s="413"/>
       <c r="B43" s="7">
         <v>2014</v>
       </c>
@@ -9461,7 +9461,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="421"/>
+      <c r="A44" s="414"/>
       <c r="B44" s="69">
         <v>2021</v>
       </c>
@@ -9479,7 +9479,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="422" t="s">
+      <c r="A45" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="20">
@@ -9499,7 +9499,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="423"/>
+      <c r="A46" s="416"/>
       <c r="B46" s="20">
         <v>2007</v>
       </c>
@@ -9517,7 +9517,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="423"/>
+      <c r="A47" s="416"/>
       <c r="B47" s="20">
         <v>2014</v>
       </c>
@@ -9535,7 +9535,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="424"/>
+      <c r="A48" s="431"/>
       <c r="B48" s="20">
         <v>2021</v>
       </c>
@@ -9553,7 +9553,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="419" t="s">
+      <c r="A49" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="7">
@@ -9573,7 +9573,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="420"/>
+      <c r="A50" s="413"/>
       <c r="B50" s="7">
         <v>2007</v>
       </c>
@@ -9591,7 +9591,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="420"/>
+      <c r="A51" s="413"/>
       <c r="B51" s="7">
         <v>2014</v>
       </c>
@@ -9609,7 +9609,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="421"/>
+      <c r="A52" s="414"/>
       <c r="B52" s="69">
         <v>2021</v>
       </c>
@@ -9627,7 +9627,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="412" t="s">
+      <c r="A53" s="424" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="20">
@@ -9647,7 +9647,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="413"/>
+      <c r="A54" s="425"/>
       <c r="B54" s="20">
         <v>2007</v>
       </c>
@@ -9665,7 +9665,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="413"/>
+      <c r="A55" s="425"/>
       <c r="B55" s="20">
         <v>2014</v>
       </c>
@@ -9683,7 +9683,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="414"/>
+      <c r="A56" s="426"/>
       <c r="B56" s="20">
         <v>2021</v>
       </c>
@@ -9701,7 +9701,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="419" t="s">
+      <c r="A57" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="7">
@@ -9721,7 +9721,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="420"/>
+      <c r="A58" s="413"/>
       <c r="B58" s="7">
         <v>2007</v>
       </c>
@@ -9739,7 +9739,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="420"/>
+      <c r="A59" s="413"/>
       <c r="B59" s="7">
         <v>2014</v>
       </c>
@@ -9757,7 +9757,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="421"/>
+      <c r="A60" s="414"/>
       <c r="B60" s="69">
         <v>2021</v>
       </c>
@@ -9775,7 +9775,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="422" t="s">
+      <c r="A61" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="20">
@@ -9795,7 +9795,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="423"/>
+      <c r="A62" s="416"/>
       <c r="B62" s="20">
         <v>2007</v>
       </c>
@@ -9813,7 +9813,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="423"/>
+      <c r="A63" s="416"/>
       <c r="B63" s="20">
         <v>2014</v>
       </c>
@@ -9831,7 +9831,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="425"/>
+      <c r="A64" s="417"/>
       <c r="B64" s="24">
         <v>2021</v>
       </c>
@@ -9850,16 +9850,16 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:8" ht="48" x14ac:dyDescent="0.25">
-      <c r="A67" s="426" t="s">
+      <c r="A67" s="418" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="428" t="s">
+      <c r="C67" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="430" t="s">
+      <c r="D67" s="422" t="s">
         <v>133</v>
       </c>
       <c r="E67" s="11" t="s">
@@ -9870,12 +9870,12 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="427"/>
+      <c r="A68" s="419"/>
       <c r="B68" s="135" t="s">
         <v>907</v>
       </c>
-      <c r="C68" s="429"/>
-      <c r="D68" s="431"/>
+      <c r="C68" s="421"/>
+      <c r="D68" s="423"/>
       <c r="E68" s="30" t="s">
         <v>908</v>
       </c>
@@ -10186,17 +10186,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10965,10 +10965,10 @@
       <c r="B41" s="46" t="s">
         <v>634</v>
       </c>
-      <c r="C41" s="428" t="s">
+      <c r="C41" s="420" t="s">
         <v>353</v>
       </c>
-      <c r="D41" s="430" t="s">
+      <c r="D41" s="422" t="s">
         <v>1045</v>
       </c>
       <c r="E41" s="11" t="s">
@@ -10983,8 +10983,8 @@
       <c r="B42" s="36" t="s">
         <v>1044</v>
       </c>
-      <c r="C42" s="429"/>
-      <c r="D42" s="431"/>
+      <c r="C42" s="421"/>
+      <c r="D42" s="423"/>
       <c r="E42" s="30" t="s">
         <v>26</v>
       </c>
@@ -10993,7 +10993,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="419" t="s">
+      <c r="A43" s="412" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="7">
@@ -11013,7 +11013,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="420"/>
+      <c r="A44" s="413"/>
       <c r="B44" s="7">
         <v>2007</v>
       </c>
@@ -11031,7 +11031,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="420"/>
+      <c r="A45" s="413"/>
       <c r="B45" s="7">
         <v>2014</v>
       </c>
@@ -11049,7 +11049,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="421"/>
+      <c r="A46" s="414"/>
       <c r="B46" s="69">
         <v>2021</v>
       </c>
@@ -11067,7 +11067,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="422" t="s">
+      <c r="A47" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="20">
@@ -11087,7 +11087,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="423"/>
+      <c r="A48" s="416"/>
       <c r="B48" s="20">
         <v>2007</v>
       </c>
@@ -11105,7 +11105,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="423"/>
+      <c r="A49" s="416"/>
       <c r="B49" s="20">
         <v>2014</v>
       </c>
@@ -11123,7 +11123,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="424"/>
+      <c r="A50" s="431"/>
       <c r="B50" s="20">
         <v>2021</v>
       </c>
@@ -11141,7 +11141,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="419" t="s">
+      <c r="A51" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="7">
@@ -11161,7 +11161,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="420"/>
+      <c r="A52" s="413"/>
       <c r="B52" s="7">
         <v>2007</v>
       </c>
@@ -11179,7 +11179,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="420"/>
+      <c r="A53" s="413"/>
       <c r="B53" s="7">
         <v>2014</v>
       </c>
@@ -11197,7 +11197,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="421"/>
+      <c r="A54" s="414"/>
       <c r="B54" s="69">
         <v>2021</v>
       </c>
@@ -11215,7 +11215,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="422" t="s">
+      <c r="A55" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="20">
@@ -11235,7 +11235,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="423"/>
+      <c r="A56" s="416"/>
       <c r="B56" s="20">
         <v>2007</v>
       </c>
@@ -11253,7 +11253,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="423"/>
+      <c r="A57" s="416"/>
       <c r="B57" s="20">
         <v>2014</v>
       </c>
@@ -11271,7 +11271,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="424"/>
+      <c r="A58" s="431"/>
       <c r="B58" s="20">
         <v>2021</v>
       </c>
@@ -11289,7 +11289,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="419" t="s">
+      <c r="A59" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B59" s="7">
@@ -11309,7 +11309,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="420"/>
+      <c r="A60" s="413"/>
       <c r="B60" s="7">
         <v>2007</v>
       </c>
@@ -11327,7 +11327,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="420"/>
+      <c r="A61" s="413"/>
       <c r="B61" s="7">
         <v>2014</v>
       </c>
@@ -11345,7 +11345,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="421"/>
+      <c r="A62" s="414"/>
       <c r="B62" s="69">
         <v>2021</v>
       </c>
@@ -11363,7 +11363,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="422" t="s">
+      <c r="A63" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B63" s="20">
@@ -11383,7 +11383,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="423"/>
+      <c r="A64" s="416"/>
       <c r="B64" s="20">
         <v>2007</v>
       </c>
@@ -11401,7 +11401,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="423"/>
+      <c r="A65" s="416"/>
       <c r="B65" s="20">
         <v>2014</v>
       </c>
@@ -11419,7 +11419,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="425"/>
+      <c r="A66" s="417"/>
       <c r="B66" s="24">
         <v>2021</v>
       </c>
@@ -11444,7 +11444,7 @@
       <c r="B69" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="445" t="s">
+      <c r="C69" s="439" t="s">
         <v>44</v>
       </c>
       <c r="D69" s="47" t="s">
@@ -11855,10 +11855,10 @@
     </row>
     <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="497">
+      <c r="A90" s="506">
         <v>2016</v>
       </c>
-      <c r="B90" s="498"/>
+      <c r="B90" s="507"/>
       <c r="C90" s="3">
         <v>2017</v>
       </c>
@@ -12119,19 +12119,19 @@
         <v>36</v>
       </c>
       <c r="B101" s="252"/>
-      <c r="C101" s="418" t="s">
+      <c r="C101" s="430" t="s">
         <v>1051</v>
       </c>
-      <c r="D101" s="503"/>
-      <c r="E101" s="504" t="s">
+      <c r="D101" s="501"/>
+      <c r="E101" s="502" t="s">
         <v>926</v>
       </c>
-      <c r="F101" s="505"/>
+      <c r="F101" s="503"/>
       <c r="G101" s="252"/>
-      <c r="H101" s="505" t="s">
+      <c r="H101" s="503" t="s">
         <v>75</v>
       </c>
-      <c r="I101" s="505"/>
+      <c r="I101" s="503"/>
       <c r="J101" s="331"/>
       <c r="K101" s="11" t="s">
         <v>8</v>
@@ -12147,21 +12147,21 @@
       <c r="B102" s="101" t="s">
         <v>1066</v>
       </c>
-      <c r="C102" s="506" t="s">
+      <c r="C102" s="504" t="s">
         <v>1067</v>
       </c>
-      <c r="D102" s="507"/>
-      <c r="E102" s="506" t="s">
+      <c r="D102" s="505"/>
+      <c r="E102" s="504" t="s">
         <v>1066</v>
       </c>
-      <c r="F102" s="507"/>
+      <c r="F102" s="505"/>
       <c r="G102" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="H102" s="506" t="s">
+      <c r="H102" s="504" t="s">
         <v>1066</v>
       </c>
-      <c r="I102" s="507"/>
+      <c r="I102" s="505"/>
       <c r="J102" s="12" t="s">
         <v>1067</v>
       </c>
@@ -12179,21 +12179,21 @@
       <c r="B103" s="314">
         <v>0.8</v>
       </c>
-      <c r="C103" s="499">
+      <c r="C103" s="497">
         <v>0.2</v>
       </c>
-      <c r="D103" s="500"/>
-      <c r="E103" s="499">
+      <c r="D103" s="498"/>
+      <c r="E103" s="497">
         <v>0.94</v>
       </c>
-      <c r="F103" s="500"/>
+      <c r="F103" s="498"/>
       <c r="G103" s="314">
         <v>0.06</v>
       </c>
-      <c r="H103" s="499">
+      <c r="H103" s="497">
         <v>1</v>
       </c>
-      <c r="I103" s="500"/>
+      <c r="I103" s="498"/>
       <c r="J103" s="315">
         <v>0</v>
       </c>
@@ -12287,21 +12287,21 @@
       <c r="B106" s="69" t="s">
         <v>1077</v>
       </c>
-      <c r="C106" s="501" t="s">
+      <c r="C106" s="499" t="s">
         <v>1078</v>
       </c>
-      <c r="D106" s="502"/>
-      <c r="E106" s="501" t="s">
+      <c r="D106" s="500"/>
+      <c r="E106" s="499" t="s">
         <v>1079</v>
       </c>
-      <c r="F106" s="502"/>
+      <c r="F106" s="500"/>
       <c r="G106" s="69" t="s">
         <v>1080</v>
       </c>
-      <c r="H106" s="501" t="s">
+      <c r="H106" s="499" t="s">
         <v>1081</v>
       </c>
-      <c r="I106" s="502"/>
+      <c r="I106" s="500"/>
       <c r="J106" s="51" t="s">
         <v>105</v>
       </c>
@@ -12323,10 +12323,10 @@
       <c r="C109" s="46" t="s">
         <v>1085</v>
       </c>
-      <c r="D109" s="428" t="s">
+      <c r="D109" s="420" t="s">
         <v>1088</v>
       </c>
-      <c r="E109" s="430" t="s">
+      <c r="E109" s="422" t="s">
         <v>1089</v>
       </c>
       <c r="F109" s="11" t="s">
@@ -12344,8 +12344,8 @@
       <c r="C110" s="36" t="s">
         <v>1087</v>
       </c>
-      <c r="D110" s="429"/>
-      <c r="E110" s="431"/>
+      <c r="D110" s="421"/>
+      <c r="E110" s="423"/>
       <c r="F110" s="30" t="s">
         <v>1093</v>
       </c>
@@ -12544,21 +12544,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="H102:I102"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="C41:C42"/>
@@ -12571,6 +12556,21 @@
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" location="_ftn1" display="_ftn1" xr:uid="{9F985B06-5BF5-4426-82E7-BDE487DF777B}"/>
@@ -12747,7 +12747,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="419" t="s">
+      <c r="A11" s="412" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="7">
@@ -12767,7 +12767,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="420"/>
+      <c r="A12" s="413"/>
       <c r="B12" s="7">
         <v>2007</v>
       </c>
@@ -12785,7 +12785,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="420"/>
+      <c r="A13" s="413"/>
       <c r="B13" s="7">
         <v>2014</v>
       </c>
@@ -12803,7 +12803,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="421"/>
+      <c r="A14" s="414"/>
       <c r="B14" s="69">
         <v>2021</v>
       </c>
@@ -12821,7 +12821,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="422" t="s">
+      <c r="A15" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="20">
@@ -12841,7 +12841,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="423"/>
+      <c r="A16" s="416"/>
       <c r="B16" s="20">
         <v>2007</v>
       </c>
@@ -12859,7 +12859,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="423"/>
+      <c r="A17" s="416"/>
       <c r="B17" s="20">
         <v>2014</v>
       </c>
@@ -12877,7 +12877,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="424"/>
+      <c r="A18" s="431"/>
       <c r="B18" s="20">
         <v>2021</v>
       </c>
@@ -12969,7 +12969,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="422" t="s">
+      <c r="A23" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="20">
@@ -12989,7 +12989,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="423"/>
+      <c r="A24" s="416"/>
       <c r="B24" s="20">
         <v>2007</v>
       </c>
@@ -13007,7 +13007,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="423"/>
+      <c r="A25" s="416"/>
       <c r="B25" s="20">
         <v>2014</v>
       </c>
@@ -13025,7 +13025,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="424"/>
+      <c r="A26" s="431"/>
       <c r="B26" s="20">
         <v>2021</v>
       </c>
@@ -13043,7 +13043,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="419" t="s">
+      <c r="A27" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="7">
@@ -13063,7 +13063,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="420"/>
+      <c r="A28" s="413"/>
       <c r="B28" s="7">
         <v>2007</v>
       </c>
@@ -13081,7 +13081,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="420"/>
+      <c r="A29" s="413"/>
       <c r="B29" s="7">
         <v>2014</v>
       </c>
@@ -13099,7 +13099,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="421"/>
+      <c r="A30" s="414"/>
       <c r="B30" s="69">
         <v>2021</v>
       </c>
@@ -13117,7 +13117,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="422" t="s">
+      <c r="A31" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="20">
@@ -13137,7 +13137,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="423"/>
+      <c r="A32" s="416"/>
       <c r="B32" s="20">
         <v>2007</v>
       </c>
@@ -13155,7 +13155,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="423"/>
+      <c r="A33" s="416"/>
       <c r="B33" s="20">
         <v>2014</v>
       </c>
@@ -13173,7 +13173,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="425"/>
+      <c r="A34" s="417"/>
       <c r="B34" s="24">
         <v>2021</v>
       </c>
@@ -13289,10 +13289,10 @@
       <c r="B41" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="428" t="s">
+      <c r="C41" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="430" t="s">
+      <c r="D41" s="422" t="s">
         <v>408</v>
       </c>
       <c r="E41" s="11" t="s">
@@ -13307,8 +13307,8 @@
       <c r="B42" s="135" t="s">
         <v>407</v>
       </c>
-      <c r="C42" s="429"/>
-      <c r="D42" s="431"/>
+      <c r="C42" s="421"/>
+      <c r="D42" s="423"/>
       <c r="E42" s="30" t="s">
         <v>409</v>
       </c>
@@ -13979,11 +13979,11 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="454"/>
-      <c r="B10" s="428" t="s">
+      <c r="A10" s="459"/>
+      <c r="B10" s="420" t="s">
         <v>1105</v>
       </c>
-      <c r="C10" s="428" t="s">
+      <c r="C10" s="420" t="s">
         <v>1102</v>
       </c>
       <c r="D10" s="47" t="s">
@@ -13998,8 +13998,8 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="471"/>
-      <c r="B11" s="429"/>
-      <c r="C11" s="429"/>
+      <c r="B11" s="421"/>
+      <c r="C11" s="421"/>
       <c r="D11" s="136" t="s">
         <v>1107</v>
       </c>
@@ -14269,10 +14269,10 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A30" s="426" t="s">
+      <c r="A30" s="418" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="428" t="s">
+      <c r="B30" s="420" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="46" t="s">
@@ -14289,8 +14289,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="427"/>
-      <c r="B31" s="429"/>
+      <c r="A31" s="419"/>
+      <c r="B31" s="421"/>
       <c r="C31" s="135" t="s">
         <v>197</v>
       </c>
@@ -14305,7 +14305,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="419" t="s">
+      <c r="A32" s="412" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="7">
@@ -14325,7 +14325,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="420"/>
+      <c r="A33" s="413"/>
       <c r="B33" s="7">
         <v>2007</v>
       </c>
@@ -14343,7 +14343,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="420"/>
+      <c r="A34" s="413"/>
       <c r="B34" s="7">
         <v>2014</v>
       </c>
@@ -14361,7 +14361,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="421"/>
+      <c r="A35" s="414"/>
       <c r="B35" s="69">
         <v>2021</v>
       </c>
@@ -14379,7 +14379,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="467" t="s">
+      <c r="A36" s="465" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="20">
@@ -14435,7 +14435,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="468"/>
+      <c r="A39" s="466"/>
       <c r="B39" s="20">
         <v>2021</v>
       </c>
@@ -14453,7 +14453,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="419" t="s">
+      <c r="A40" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="7">
@@ -14473,7 +14473,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="420"/>
+      <c r="A41" s="413"/>
       <c r="B41" s="7">
         <v>2007</v>
       </c>
@@ -14491,7 +14491,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="420"/>
+      <c r="A42" s="413"/>
       <c r="B42" s="7">
         <v>2014</v>
       </c>
@@ -14509,7 +14509,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="421"/>
+      <c r="A43" s="414"/>
       <c r="B43" s="69">
         <v>2021</v>
       </c>
@@ -14527,7 +14527,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="467" t="s">
+      <c r="A44" s="465" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="20">
@@ -14583,7 +14583,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="468"/>
+      <c r="A47" s="466"/>
       <c r="B47" s="20">
         <v>2021</v>
       </c>
@@ -14601,7 +14601,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="419" t="s">
+      <c r="A48" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="7">
@@ -14621,7 +14621,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="420"/>
+      <c r="A49" s="413"/>
       <c r="B49" s="7">
         <v>2007</v>
       </c>
@@ -14639,7 +14639,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="420"/>
+      <c r="A50" s="413"/>
       <c r="B50" s="7">
         <v>2014</v>
       </c>
@@ -14657,7 +14657,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="421"/>
+      <c r="A51" s="414"/>
       <c r="B51" s="69">
         <v>2021</v>
       </c>
@@ -14675,7 +14675,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="422" t="s">
+      <c r="A52" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B52" s="20">
@@ -14695,7 +14695,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="423"/>
+      <c r="A53" s="416"/>
       <c r="B53" s="20">
         <v>2007</v>
       </c>
@@ -14713,7 +14713,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="423"/>
+      <c r="A54" s="416"/>
       <c r="B54" s="20">
         <v>2014</v>
       </c>
@@ -14731,7 +14731,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="425"/>
+      <c r="A55" s="417"/>
       <c r="B55" s="24">
         <v>2021</v>
       </c>
@@ -14756,7 +14756,7 @@
       <c r="B58" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="C58" s="428" t="s">
+      <c r="C58" s="420" t="s">
         <v>44</v>
       </c>
       <c r="D58" s="47" t="s">
@@ -14774,7 +14774,7 @@
       <c r="B59" s="135" t="s">
         <v>1114</v>
       </c>
-      <c r="C59" s="429"/>
+      <c r="C59" s="421"/>
       <c r="D59" s="136" t="s">
         <v>287</v>
       </c>
@@ -14907,6 +14907,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A43"/>
@@ -14914,12 +14920,6 @@
     <mergeCell ref="A48:A51"/>
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15696,10 +15696,10 @@
       <c r="A43" s="447" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="512" t="s">
+      <c r="B43" s="519" t="s">
         <v>477</v>
       </c>
-      <c r="C43" s="513"/>
+      <c r="C43" s="520"/>
       <c r="D43" s="47" t="s">
         <v>478</v>
       </c>
@@ -15712,8 +15712,8 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="448"/>
-      <c r="B44" s="514"/>
-      <c r="C44" s="515"/>
+      <c r="B44" s="521"/>
+      <c r="C44" s="522"/>
       <c r="D44" s="136" t="s">
         <v>287</v>
       </c>
@@ -15725,7 +15725,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="419" t="s">
+      <c r="A45" s="412" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="7">
@@ -15745,7 +15745,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="420"/>
+      <c r="A46" s="413"/>
       <c r="B46" s="7">
         <v>2007</v>
       </c>
@@ -15763,7 +15763,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="420"/>
+      <c r="A47" s="413"/>
       <c r="B47" s="7">
         <v>2014</v>
       </c>
@@ -15781,7 +15781,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="421"/>
+      <c r="A48" s="414"/>
       <c r="B48" s="69">
         <v>2021</v>
       </c>
@@ -15799,7 +15799,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="422" t="s">
+      <c r="A49" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="20">
@@ -15819,7 +15819,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="423"/>
+      <c r="A50" s="416"/>
       <c r="B50" s="20">
         <v>2007</v>
       </c>
@@ -15837,7 +15837,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="423"/>
+      <c r="A51" s="416"/>
       <c r="B51" s="20">
         <v>2014</v>
       </c>
@@ -15855,7 +15855,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="424"/>
+      <c r="A52" s="431"/>
       <c r="B52" s="20">
         <v>2021</v>
       </c>
@@ -15873,7 +15873,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="419" t="s">
+      <c r="A53" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="7">
@@ -15893,7 +15893,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="420"/>
+      <c r="A54" s="413"/>
       <c r="B54" s="7">
         <v>2007</v>
       </c>
@@ -15911,7 +15911,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="420"/>
+      <c r="A55" s="413"/>
       <c r="B55" s="7">
         <v>2014</v>
       </c>
@@ -15929,7 +15929,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="421"/>
+      <c r="A56" s="414"/>
       <c r="B56" s="69">
         <v>2021</v>
       </c>
@@ -15947,7 +15947,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="422" t="s">
+      <c r="A57" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="20">
@@ -15967,7 +15967,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="423"/>
+      <c r="A58" s="416"/>
       <c r="B58" s="20">
         <v>2007</v>
       </c>
@@ -15985,7 +15985,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="423"/>
+      <c r="A59" s="416"/>
       <c r="B59" s="20">
         <v>2014</v>
       </c>
@@ -16003,7 +16003,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="424"/>
+      <c r="A60" s="431"/>
       <c r="B60" s="20">
         <v>2021</v>
       </c>
@@ -16021,7 +16021,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="419" t="s">
+      <c r="A61" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="7">
@@ -16041,7 +16041,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="420"/>
+      <c r="A62" s="413"/>
       <c r="B62" s="7">
         <v>2007</v>
       </c>
@@ -16059,7 +16059,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="421"/>
+      <c r="A63" s="414"/>
       <c r="B63" s="69">
         <v>2014</v>
       </c>
@@ -16077,7 +16077,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="422" t="s">
+      <c r="A64" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="20">
@@ -16097,7 +16097,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="423"/>
+      <c r="A65" s="416"/>
       <c r="B65" s="20">
         <v>2007</v>
       </c>
@@ -16115,7 +16115,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="423"/>
+      <c r="A66" s="416"/>
       <c r="B66" s="20">
         <v>2014</v>
       </c>
@@ -16133,7 +16133,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="425"/>
+      <c r="A67" s="417"/>
       <c r="B67" s="24">
         <v>2021</v>
       </c>
@@ -16243,13 +16243,13 @@
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A74" s="516" t="s">
+      <c r="A74" s="512" t="s">
         <v>12</v>
       </c>
       <c r="B74" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="428" t="s">
+      <c r="C74" s="420" t="s">
         <v>44</v>
       </c>
       <c r="D74" s="47" t="s">
@@ -16263,11 +16263,11 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="517"/>
+      <c r="A75" s="513"/>
       <c r="B75" s="135" t="s">
         <v>490</v>
       </c>
-      <c r="C75" s="429"/>
+      <c r="C75" s="421"/>
       <c r="D75" s="136" t="s">
         <v>287</v>
       </c>
@@ -16610,17 +16610,17 @@
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A95" s="518"/>
-      <c r="B95" s="520" t="s">
+      <c r="A95" s="514"/>
+      <c r="B95" s="516" t="s">
         <v>499</v>
       </c>
-      <c r="C95" s="458" t="s">
+      <c r="C95" s="463" t="s">
         <v>500</v>
       </c>
       <c r="D95" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="E95" s="456" t="s">
+      <c r="E95" s="461" t="s">
         <v>503</v>
       </c>
       <c r="F95" s="47" t="s">
@@ -16634,9 +16634,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="519"/>
-      <c r="B96" s="521"/>
-      <c r="C96" s="522"/>
+      <c r="A96" s="515"/>
+      <c r="B96" s="517"/>
+      <c r="C96" s="518"/>
       <c r="D96" s="224" t="s">
         <v>502</v>
       </c>
@@ -16938,6 +16938,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
     <mergeCell ref="E95:E96"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="A61:A63"/>
@@ -16947,11 +16952,6 @@
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17245,11 +17245,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="522"/>
+      <c r="A21" s="518"/>
       <c r="B21" s="289" t="s">
         <v>1129</v>
       </c>
-      <c r="C21" s="429"/>
+      <c r="C21" s="421"/>
       <c r="D21" s="178" t="s">
         <v>46</v>
       </c>
@@ -17965,13 +17965,13 @@
       <c r="A31" s="447" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="456" t="s">
+      <c r="B31" s="461" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="430" t="s">
+      <c r="D31" s="422" t="s">
         <v>529</v>
       </c>
       <c r="E31" s="11" t="s">
@@ -17987,7 +17987,7 @@
       <c r="C32" s="135" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="431"/>
+      <c r="D32" s="423"/>
       <c r="E32" s="30" t="s">
         <v>26</v>
       </c>
@@ -17996,7 +17996,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="419" t="s">
+      <c r="A33" s="412" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="7">
@@ -18016,7 +18016,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="420"/>
+      <c r="A34" s="413"/>
       <c r="B34" s="7">
         <v>2007</v>
       </c>
@@ -18034,7 +18034,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="420"/>
+      <c r="A35" s="413"/>
       <c r="B35" s="7">
         <v>2014</v>
       </c>
@@ -18052,7 +18052,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="421"/>
+      <c r="A36" s="414"/>
       <c r="B36" s="69">
         <v>2021</v>
       </c>
@@ -18070,7 +18070,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="422" t="s">
+      <c r="A37" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="20">
@@ -18090,7 +18090,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="423"/>
+      <c r="A38" s="416"/>
       <c r="B38" s="20">
         <v>2007</v>
       </c>
@@ -18108,7 +18108,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="423"/>
+      <c r="A39" s="416"/>
       <c r="B39" s="20">
         <v>2014</v>
       </c>
@@ -18126,7 +18126,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="424"/>
+      <c r="A40" s="431"/>
       <c r="B40" s="20">
         <v>2021</v>
       </c>
@@ -18144,7 +18144,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="419" t="s">
+      <c r="A41" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="7">
@@ -18164,7 +18164,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="420"/>
+      <c r="A42" s="413"/>
       <c r="B42" s="7">
         <v>2007</v>
       </c>
@@ -18182,7 +18182,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="420"/>
+      <c r="A43" s="413"/>
       <c r="B43" s="7">
         <v>2014</v>
       </c>
@@ -18200,7 +18200,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="421"/>
+      <c r="A44" s="414"/>
       <c r="B44" s="69">
         <v>2021</v>
       </c>
@@ -18218,7 +18218,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="422" t="s">
+      <c r="A45" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="20">
@@ -18238,7 +18238,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="423"/>
+      <c r="A46" s="416"/>
       <c r="B46" s="20">
         <v>2007</v>
       </c>
@@ -18256,7 +18256,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="423"/>
+      <c r="A47" s="416"/>
       <c r="B47" s="20">
         <v>2014</v>
       </c>
@@ -18274,7 +18274,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="424"/>
+      <c r="A48" s="431"/>
       <c r="B48" s="20">
         <v>2021</v>
       </c>
@@ -18292,7 +18292,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="419" t="s">
+      <c r="A49" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B49" s="7">
@@ -18312,7 +18312,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="420"/>
+      <c r="A50" s="413"/>
       <c r="B50" s="7">
         <v>2007</v>
       </c>
@@ -18330,7 +18330,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="420"/>
+      <c r="A51" s="413"/>
       <c r="B51" s="7">
         <v>2014</v>
       </c>
@@ -18348,7 +18348,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="421"/>
+      <c r="A52" s="414"/>
       <c r="B52" s="69">
         <v>2021</v>
       </c>
@@ -18366,7 +18366,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="422" t="s">
+      <c r="A53" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B53" s="20">
@@ -18386,7 +18386,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="423"/>
+      <c r="A54" s="416"/>
       <c r="B54" s="20">
         <v>2007</v>
       </c>
@@ -18404,7 +18404,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="423"/>
+      <c r="A55" s="416"/>
       <c r="B55" s="20">
         <v>2014</v>
       </c>
@@ -18422,7 +18422,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="425"/>
+      <c r="A56" s="417"/>
       <c r="B56" s="24">
         <v>2021</v>
       </c>
@@ -18691,10 +18691,10 @@
       <c r="B66" s="231" t="s">
         <v>285</v>
       </c>
-      <c r="C66" s="532" t="s">
+      <c r="C66" s="527" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="530" t="s">
+      <c r="D66" s="525" t="s">
         <v>541</v>
       </c>
       <c r="E66" s="11" t="s">
@@ -18709,8 +18709,8 @@
       <c r="B67" s="135" t="s">
         <v>540</v>
       </c>
-      <c r="C67" s="533"/>
-      <c r="D67" s="531"/>
+      <c r="C67" s="528"/>
+      <c r="D67" s="526"/>
       <c r="E67" s="30" t="s">
         <v>51</v>
       </c>
@@ -18929,14 +18929,14 @@
       <c r="A81" s="447" t="s">
         <v>556</v>
       </c>
-      <c r="B81" s="460" t="s">
+      <c r="B81" s="455" t="s">
         <v>557</v>
       </c>
-      <c r="C81" s="463"/>
-      <c r="D81" s="463"/>
-      <c r="E81" s="463"/>
-      <c r="F81" s="463"/>
-      <c r="G81" s="461"/>
+      <c r="C81" s="458"/>
+      <c r="D81" s="458"/>
+      <c r="E81" s="458"/>
+      <c r="F81" s="458"/>
+      <c r="G81" s="456"/>
       <c r="H81" s="11" t="s">
         <v>8</v>
       </c>
@@ -18945,19 +18945,19 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="525"/>
-      <c r="B82" s="527">
+      <c r="A82" s="529"/>
+      <c r="B82" s="531">
         <v>2018</v>
       </c>
-      <c r="C82" s="528"/>
-      <c r="D82" s="527">
+      <c r="C82" s="532"/>
+      <c r="D82" s="531">
         <v>2019</v>
       </c>
-      <c r="E82" s="528"/>
-      <c r="F82" s="527">
+      <c r="E82" s="532"/>
+      <c r="F82" s="531">
         <v>2020</v>
       </c>
-      <c r="G82" s="529"/>
+      <c r="G82" s="533"/>
       <c r="H82" s="30" t="s">
         <v>577</v>
       </c>
@@ -18966,7 +18966,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="526"/>
+      <c r="A83" s="530"/>
       <c r="B83" s="234" t="s">
         <v>558</v>
       </c>
@@ -19545,6 +19545,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
     <mergeCell ref="D66:D67"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
@@ -19557,11 +19562,6 @@
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A6" location="_ftn1" display="_ftn1" xr:uid="{88A27A76-82D3-4610-8B7C-2CFCB91C8902}"/>
@@ -20103,7 +20103,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="419" t="s">
+      <c r="A34" s="412" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="7">
@@ -20123,7 +20123,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="420"/>
+      <c r="A35" s="413"/>
       <c r="B35" s="7">
         <v>2007</v>
       </c>
@@ -20141,7 +20141,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="420"/>
+      <c r="A36" s="413"/>
       <c r="B36" s="7">
         <v>2014</v>
       </c>
@@ -20159,7 +20159,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="421"/>
+      <c r="A37" s="414"/>
       <c r="B37" s="69">
         <v>2021</v>
       </c>
@@ -20177,7 +20177,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="422" t="s">
+      <c r="A38" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="20">
@@ -20197,7 +20197,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="423"/>
+      <c r="A39" s="416"/>
       <c r="B39" s="20">
         <v>2007</v>
       </c>
@@ -20215,7 +20215,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="423"/>
+      <c r="A40" s="416"/>
       <c r="B40" s="20">
         <v>2014</v>
       </c>
@@ -20233,7 +20233,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="424"/>
+      <c r="A41" s="431"/>
       <c r="B41" s="20">
         <v>2021</v>
       </c>
@@ -20325,7 +20325,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="422" t="s">
+      <c r="A46" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="20">
@@ -20345,7 +20345,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="423"/>
+      <c r="A47" s="416"/>
       <c r="B47" s="20">
         <v>2007</v>
       </c>
@@ -20363,7 +20363,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="423"/>
+      <c r="A48" s="416"/>
       <c r="B48" s="20">
         <v>2014</v>
       </c>
@@ -20381,7 +20381,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="424"/>
+      <c r="A49" s="431"/>
       <c r="B49" s="20">
         <v>2021</v>
       </c>
@@ -20473,7 +20473,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="422" t="s">
+      <c r="A54" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B54" s="20">
@@ -20493,7 +20493,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="423"/>
+      <c r="A55" s="416"/>
       <c r="B55" s="20">
         <v>2007</v>
       </c>
@@ -20511,7 +20511,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="423"/>
+      <c r="A56" s="416"/>
       <c r="B56" s="20">
         <v>2014</v>
       </c>
@@ -20529,7 +20529,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="425"/>
+      <c r="A57" s="417"/>
       <c r="B57" s="24">
         <v>2021</v>
       </c>
@@ -22133,7 +22133,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="419">
+      <c r="A22" s="412">
         <v>2016</v>
       </c>
       <c r="B22" s="101" t="s">
@@ -22168,7 +22168,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="438"/>
+      <c r="A23" s="436"/>
       <c r="B23" s="101" t="s">
         <v>1136</v>
       </c>
@@ -22201,7 +22201,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="419">
+      <c r="A24" s="412">
         <v>2017</v>
       </c>
       <c r="B24" s="101" t="s">
@@ -22236,7 +22236,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="438"/>
+      <c r="A25" s="436"/>
       <c r="B25" s="101" t="s">
         <v>1136</v>
       </c>
@@ -22269,7 +22269,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="419">
+      <c r="A26" s="412">
         <v>2018</v>
       </c>
       <c r="B26" s="101" t="s">
@@ -22304,7 +22304,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="438"/>
+      <c r="A27" s="436"/>
       <c r="B27" s="101" t="s">
         <v>1136</v>
       </c>
@@ -22337,7 +22337,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="419">
+      <c r="A28" s="412">
         <v>2019</v>
       </c>
       <c r="B28" s="101" t="s">
@@ -22372,7 +22372,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="438"/>
+      <c r="A29" s="436"/>
       <c r="B29" s="101" t="s">
         <v>1136</v>
       </c>
@@ -22405,7 +22405,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="419">
+      <c r="A30" s="412">
         <v>2020</v>
       </c>
       <c r="B30" s="101" t="s">
@@ -22440,7 +22440,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="438"/>
+      <c r="A31" s="436"/>
       <c r="B31" s="101" t="s">
         <v>1136</v>
       </c>
@@ -22473,7 +22473,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="419">
+      <c r="A32" s="412">
         <v>2021</v>
       </c>
       <c r="B32" s="101" t="s">
@@ -22508,7 +22508,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="421"/>
+      <c r="A33" s="414"/>
       <c r="B33" s="107" t="s">
         <v>1136</v>
       </c>
@@ -22699,7 +22699,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="419" t="s">
+      <c r="A47" s="412" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="7">
@@ -22719,7 +22719,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="420"/>
+      <c r="A48" s="413"/>
       <c r="B48" s="7">
         <v>2007</v>
       </c>
@@ -22737,7 +22737,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="420"/>
+      <c r="A49" s="413"/>
       <c r="B49" s="7">
         <v>2014</v>
       </c>
@@ -22755,7 +22755,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="421"/>
+      <c r="A50" s="414"/>
       <c r="B50" s="69">
         <v>2021</v>
       </c>
@@ -22773,7 +22773,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="422" t="s">
+      <c r="A51" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="20">
@@ -22793,7 +22793,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="423"/>
+      <c r="A52" s="416"/>
       <c r="B52" s="20">
         <v>2007</v>
       </c>
@@ -22811,7 +22811,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="423"/>
+      <c r="A53" s="416"/>
       <c r="B53" s="20">
         <v>2014</v>
       </c>
@@ -22829,7 +22829,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="424"/>
+      <c r="A54" s="431"/>
       <c r="B54" s="20">
         <v>2021</v>
       </c>
@@ -22847,7 +22847,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="419" t="s">
+      <c r="A55" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="7">
@@ -22867,7 +22867,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="420"/>
+      <c r="A56" s="413"/>
       <c r="B56" s="7">
         <v>2007</v>
       </c>
@@ -22885,7 +22885,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="420"/>
+      <c r="A57" s="413"/>
       <c r="B57" s="7">
         <v>2014</v>
       </c>
@@ -22903,7 +22903,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="421"/>
+      <c r="A58" s="414"/>
       <c r="B58" s="69">
         <v>2021</v>
       </c>
@@ -22921,7 +22921,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="422" t="s">
+      <c r="A59" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="20">
@@ -22941,7 +22941,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="423"/>
+      <c r="A60" s="416"/>
       <c r="B60" s="20">
         <v>2007</v>
       </c>
@@ -22959,7 +22959,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="423"/>
+      <c r="A61" s="416"/>
       <c r="B61" s="20">
         <v>2014</v>
       </c>
@@ -22977,7 +22977,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="424"/>
+      <c r="A62" s="431"/>
       <c r="B62" s="20">
         <v>2021</v>
       </c>
@@ -22995,7 +22995,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="419" t="s">
+      <c r="A63" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="7">
@@ -23015,7 +23015,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="420"/>
+      <c r="A64" s="413"/>
       <c r="B64" s="7">
         <v>2007</v>
       </c>
@@ -23033,7 +23033,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="420"/>
+      <c r="A65" s="413"/>
       <c r="B65" s="7">
         <v>2014</v>
       </c>
@@ -23051,7 +23051,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="421"/>
+      <c r="A66" s="414"/>
       <c r="B66" s="69">
         <v>2021</v>
       </c>
@@ -23069,7 +23069,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="422" t="s">
+      <c r="A67" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B67" s="20">
@@ -23089,7 +23089,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="423"/>
+      <c r="A68" s="416"/>
       <c r="B68" s="20">
         <v>2007</v>
       </c>
@@ -23107,7 +23107,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="423"/>
+      <c r="A69" s="416"/>
       <c r="B69" s="20">
         <v>2014</v>
       </c>
@@ -23125,7 +23125,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="425"/>
+      <c r="A70" s="417"/>
       <c r="B70" s="24">
         <v>2021</v>
       </c>
@@ -23287,10 +23287,10 @@
       <c r="B81" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C81" s="428" t="s">
+      <c r="C81" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="430" t="s">
+      <c r="D81" s="422" t="s">
         <v>1166</v>
       </c>
       <c r="E81" s="11" t="s">
@@ -23305,8 +23305,8 @@
       <c r="B82" s="135" t="s">
         <v>1165</v>
       </c>
-      <c r="C82" s="429"/>
-      <c r="D82" s="431"/>
+      <c r="C82" s="421"/>
+      <c r="D82" s="423"/>
       <c r="E82" s="30" t="s">
         <v>1167</v>
       </c>
@@ -23617,11 +23617,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F20:G20"/>
@@ -23634,6 +23629,11 @@
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23988,7 +23988,7 @@
       <c r="A19" s="447" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="428" t="s">
+      <c r="B19" s="420" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="46" t="s">
@@ -24006,7 +24006,7 @@
     </row>
     <row r="20" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="448"/>
-      <c r="B20" s="429"/>
+      <c r="B20" s="421"/>
       <c r="C20" s="289" t="s">
         <v>197</v>
       </c>
@@ -24039,7 +24039,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="539" t="s">
+      <c r="A22" s="549" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="7">
@@ -24059,7 +24059,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="539"/>
+      <c r="A23" s="549"/>
       <c r="B23" s="7">
         <v>2014</v>
       </c>
@@ -24077,7 +24077,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="540"/>
+      <c r="A24" s="550"/>
       <c r="B24" s="69">
         <v>2021</v>
       </c>
@@ -24095,7 +24095,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="422" t="s">
+      <c r="A25" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="20">
@@ -24115,7 +24115,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="423"/>
+      <c r="A26" s="416"/>
       <c r="B26" s="20">
         <v>2007</v>
       </c>
@@ -24133,7 +24133,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="423"/>
+      <c r="A27" s="416"/>
       <c r="B27" s="20">
         <v>2014</v>
       </c>
@@ -24151,7 +24151,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="424"/>
+      <c r="A28" s="431"/>
       <c r="B28" s="20">
         <v>2021</v>
       </c>
@@ -24169,7 +24169,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="419" t="s">
+      <c r="A29" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="7">
@@ -24189,7 +24189,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="420"/>
+      <c r="A30" s="413"/>
       <c r="B30" s="7">
         <v>2007</v>
       </c>
@@ -24207,7 +24207,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="420"/>
+      <c r="A31" s="413"/>
       <c r="B31" s="7">
         <v>2014</v>
       </c>
@@ -24225,7 +24225,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="421"/>
+      <c r="A32" s="414"/>
       <c r="B32" s="69">
         <v>2021</v>
       </c>
@@ -24317,7 +24317,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="419" t="s">
+      <c r="A37" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="7">
@@ -24337,7 +24337,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="420"/>
+      <c r="A38" s="413"/>
       <c r="B38" s="7">
         <v>2007</v>
       </c>
@@ -24355,7 +24355,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="420"/>
+      <c r="A39" s="413"/>
       <c r="B39" s="7">
         <v>2014</v>
       </c>
@@ -24373,7 +24373,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="421"/>
+      <c r="A40" s="414"/>
       <c r="B40" s="69">
         <v>2021</v>
       </c>
@@ -24391,7 +24391,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="422" t="s">
+      <c r="A41" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="20">
@@ -24411,7 +24411,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="423"/>
+      <c r="A42" s="416"/>
       <c r="B42" s="20">
         <v>2007</v>
       </c>
@@ -24429,7 +24429,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="423"/>
+      <c r="A43" s="416"/>
       <c r="B43" s="20">
         <v>2014</v>
       </c>
@@ -24447,7 +24447,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="425"/>
+      <c r="A44" s="417"/>
       <c r="B44" s="24">
         <v>2021</v>
       </c>
@@ -25149,18 +25149,18 @@
       <c r="B85" s="227" t="s">
         <v>76</v>
       </c>
-      <c r="C85" s="460" t="s">
+      <c r="C85" s="455" t="s">
         <v>771</v>
       </c>
-      <c r="D85" s="462"/>
-      <c r="E85" s="460" t="s">
+      <c r="D85" s="457"/>
+      <c r="E85" s="455" t="s">
         <v>772</v>
       </c>
-      <c r="F85" s="463"/>
-      <c r="G85" s="463" t="s">
+      <c r="F85" s="458"/>
+      <c r="G85" s="458" t="s">
         <v>773</v>
       </c>
-      <c r="H85" s="461"/>
+      <c r="H85" s="456"/>
       <c r="I85" s="11" t="s">
         <v>8</v>
       </c>
@@ -25169,26 +25169,26 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="525"/>
-      <c r="B86" s="541" t="s">
+      <c r="A86" s="529"/>
+      <c r="B86" s="539" t="s">
         <v>774</v>
       </c>
-      <c r="C86" s="543" t="s">
+      <c r="C86" s="541" t="s">
         <v>775</v>
       </c>
       <c r="D86" s="312" t="s">
         <v>776</v>
       </c>
-      <c r="E86" s="543" t="s">
+      <c r="E86" s="541" t="s">
         <v>775</v>
       </c>
-      <c r="F86" s="545" t="s">
+      <c r="F86" s="543" t="s">
         <v>778</v>
       </c>
-      <c r="G86" s="547" t="s">
+      <c r="G86" s="545" t="s">
         <v>775</v>
       </c>
-      <c r="H86" s="549" t="s">
+      <c r="H86" s="547" t="s">
         <v>778</v>
       </c>
       <c r="I86" s="30" t="s">
@@ -25200,15 +25200,15 @@
     </row>
     <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="448"/>
-      <c r="B87" s="542"/>
-      <c r="C87" s="544"/>
+      <c r="B87" s="540"/>
+      <c r="C87" s="542"/>
       <c r="D87" s="313" t="s">
         <v>777</v>
       </c>
-      <c r="E87" s="544"/>
-      <c r="F87" s="546"/>
-      <c r="G87" s="548"/>
-      <c r="H87" s="550"/>
+      <c r="E87" s="542"/>
+      <c r="F87" s="544"/>
+      <c r="G87" s="546"/>
+      <c r="H87" s="548"/>
       <c r="I87" s="30" t="s">
         <v>785</v>
       </c>
@@ -25631,6 +25631,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A44"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="E85:F85"/>
     <mergeCell ref="G85:H85"/>
@@ -25640,16 +25650,6 @@
     <mergeCell ref="F86:F87"/>
     <mergeCell ref="G86:G87"/>
     <mergeCell ref="H86:H87"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26015,7 +26015,7 @@
       <c r="A19" s="447" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="428" t="s">
+      <c r="B19" s="420" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="46" t="s">
@@ -26033,7 +26033,7 @@
     </row>
     <row r="20" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="448"/>
-      <c r="B20" s="429"/>
+      <c r="B20" s="421"/>
       <c r="C20" s="135" t="s">
         <v>591</v>
       </c>
@@ -26196,7 +26196,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="419" t="s">
+      <c r="A29" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="7">
@@ -26216,7 +26216,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="420"/>
+      <c r="A30" s="413"/>
       <c r="B30" s="7">
         <v>2007</v>
       </c>
@@ -26234,7 +26234,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="420"/>
+      <c r="A31" s="413"/>
       <c r="B31" s="7">
         <v>2014</v>
       </c>
@@ -26252,7 +26252,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="421"/>
+      <c r="A32" s="414"/>
       <c r="B32" s="69">
         <v>2021</v>
       </c>
@@ -26270,7 +26270,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="422" t="s">
+      <c r="A33" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="20">
@@ -26290,7 +26290,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="423"/>
+      <c r="A34" s="416"/>
       <c r="B34" s="20">
         <v>2007</v>
       </c>
@@ -26308,7 +26308,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="423"/>
+      <c r="A35" s="416"/>
       <c r="B35" s="20">
         <v>2014</v>
       </c>
@@ -26326,7 +26326,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="424"/>
+      <c r="A36" s="431"/>
       <c r="B36" s="20">
         <v>2021</v>
       </c>
@@ -26344,7 +26344,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="419" t="s">
+      <c r="A37" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="7">
@@ -26364,7 +26364,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="420"/>
+      <c r="A38" s="413"/>
       <c r="B38" s="7">
         <v>2007</v>
       </c>
@@ -26382,7 +26382,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="420"/>
+      <c r="A39" s="413"/>
       <c r="B39" s="7">
         <v>2014</v>
       </c>
@@ -26400,7 +26400,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="421"/>
+      <c r="A40" s="414"/>
       <c r="B40" s="69">
         <v>2021</v>
       </c>
@@ -26418,7 +26418,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="422" t="s">
+      <c r="A41" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="20">
@@ -26438,7 +26438,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="423"/>
+      <c r="A42" s="416"/>
       <c r="B42" s="20">
         <v>2007</v>
       </c>
@@ -26456,7 +26456,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="423"/>
+      <c r="A43" s="416"/>
       <c r="B43" s="20">
         <v>2014</v>
       </c>
@@ -26474,7 +26474,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="425"/>
+      <c r="A44" s="417"/>
       <c r="B44" s="24">
         <v>2021</v>
       </c>
@@ -26604,10 +26604,10 @@
       <c r="B52" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C52" s="428" t="s">
+      <c r="C52" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="430" t="s">
+      <c r="D52" s="422" t="s">
         <v>603</v>
       </c>
       <c r="E52" s="11" t="s">
@@ -26622,8 +26622,8 @@
       <c r="B53" s="135" t="s">
         <v>602</v>
       </c>
-      <c r="C53" s="429"/>
-      <c r="D53" s="431"/>
+      <c r="C53" s="421"/>
+      <c r="D53" s="423"/>
       <c r="E53" s="30" t="s">
         <v>51</v>
       </c>
@@ -27362,7 +27362,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="432" t="s">
+      <c r="A14" s="441" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="7">
@@ -27382,7 +27382,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="433"/>
+      <c r="A15" s="442"/>
       <c r="B15" s="7">
         <v>2007</v>
       </c>
@@ -27400,7 +27400,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="433"/>
+      <c r="A16" s="442"/>
       <c r="B16" s="7">
         <v>2014</v>
       </c>
@@ -27418,7 +27418,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="434"/>
+      <c r="A17" s="443"/>
       <c r="B17" s="7">
         <v>2021</v>
       </c>
@@ -27436,7 +27436,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="435" t="s">
+      <c r="A18" s="444" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="20">
@@ -27456,7 +27456,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="436"/>
+      <c r="A19" s="445"/>
       <c r="B19" s="20">
         <v>2007</v>
       </c>
@@ -27474,7 +27474,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="436"/>
+      <c r="A20" s="445"/>
       <c r="B20" s="20">
         <v>2014</v>
       </c>
@@ -27492,7 +27492,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="437"/>
+      <c r="A21" s="446"/>
       <c r="B21" s="20">
         <v>2021</v>
       </c>
@@ -27510,7 +27510,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="419" t="s">
+      <c r="A22" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
@@ -27530,7 +27530,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="420"/>
+      <c r="A23" s="413"/>
       <c r="B23" s="7">
         <v>2007</v>
       </c>
@@ -27548,7 +27548,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="420"/>
+      <c r="A24" s="413"/>
       <c r="B24" s="7">
         <v>2014</v>
       </c>
@@ -27566,7 +27566,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="438"/>
+      <c r="A25" s="436"/>
       <c r="B25" s="7">
         <v>2021</v>
       </c>
@@ -27584,7 +27584,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="435" t="s">
+      <c r="A26" s="444" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="20">
@@ -27604,7 +27604,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="436"/>
+      <c r="A27" s="445"/>
       <c r="B27" s="20">
         <v>2007</v>
       </c>
@@ -27622,7 +27622,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="436"/>
+      <c r="A28" s="445"/>
       <c r="B28" s="20">
         <v>2014</v>
       </c>
@@ -27640,7 +27640,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="437"/>
+      <c r="A29" s="446"/>
       <c r="B29" s="20">
         <v>2021</v>
       </c>
@@ -27658,7 +27658,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="419" t="s">
+      <c r="A30" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7">
@@ -27678,7 +27678,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="420"/>
+      <c r="A31" s="413"/>
       <c r="B31" s="7">
         <v>2007</v>
       </c>
@@ -27696,7 +27696,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="420"/>
+      <c r="A32" s="413"/>
       <c r="B32" s="7">
         <v>2014</v>
       </c>
@@ -27714,7 +27714,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="438"/>
+      <c r="A33" s="436"/>
       <c r="B33" s="7">
         <v>2021</v>
       </c>
@@ -27732,7 +27732,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="443" t="s">
+      <c r="A34" s="437" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="20">
@@ -27752,7 +27752,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="423"/>
+      <c r="A35" s="416"/>
       <c r="B35" s="20">
         <v>2007</v>
       </c>
@@ -27770,7 +27770,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="423"/>
+      <c r="A36" s="416"/>
       <c r="B36" s="20">
         <v>2014</v>
       </c>
@@ -27788,7 +27788,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="425"/>
+      <c r="A37" s="417"/>
       <c r="B37" s="24">
         <v>2021</v>
       </c>
@@ -28035,13 +28035,13 @@
       <c r="H50" s="31"/>
     </row>
     <row r="51" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A51" s="426" t="s">
+      <c r="A51" s="418" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="445" t="s">
+      <c r="C51" s="439" t="s">
         <v>44</v>
       </c>
       <c r="D51" s="47" t="s">
@@ -28057,11 +28057,11 @@
       <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="444"/>
+      <c r="A52" s="438"/>
       <c r="B52" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="446"/>
+      <c r="C52" s="440"/>
       <c r="D52" s="48" t="s">
         <v>46</v>
       </c>
@@ -28750,19 +28750,19 @@
       <c r="A81" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="439">
+      <c r="B81" s="432">
         <v>0.248</v>
       </c>
-      <c r="C81" s="439">
+      <c r="C81" s="432">
         <v>0.08</v>
       </c>
-      <c r="D81" s="439">
+      <c r="D81" s="432">
         <v>0.152</v>
       </c>
-      <c r="E81" s="439">
+      <c r="E81" s="432">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F81" s="441">
+      <c r="F81" s="434">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G81" s="30" t="s">
@@ -28776,11 +28776,11 @@
       <c r="A82" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B82" s="440"/>
-      <c r="C82" s="440"/>
-      <c r="D82" s="440"/>
-      <c r="E82" s="440"/>
-      <c r="F82" s="442"/>
+      <c r="B82" s="433"/>
+      <c r="C82" s="433"/>
+      <c r="D82" s="433"/>
+      <c r="E82" s="433"/>
+      <c r="F82" s="435"/>
       <c r="G82" s="30" t="s">
         <v>69</v>
       </c>
@@ -28855,6 +28855,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="D81:D82"/>
     <mergeCell ref="E81:E82"/>
     <mergeCell ref="F81:F82"/>
     <mergeCell ref="A30:A33"/>
@@ -28863,11 +28868,6 @@
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="C81:C82"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="D81:D82"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29200,7 +29200,7 @@
       <c r="A17" s="447" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="428" t="s">
+      <c r="B17" s="420" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="46" t="s">
@@ -29218,7 +29218,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="448"/>
-      <c r="B18" s="429"/>
+      <c r="B18" s="421"/>
       <c r="C18" s="135" t="s">
         <v>811</v>
       </c>
@@ -29778,10 +29778,10 @@
       <c r="B50" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C50" s="428" t="s">
+      <c r="C50" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="430" t="s">
+      <c r="D50" s="422" t="s">
         <v>817</v>
       </c>
       <c r="E50" s="11" t="s">
@@ -29796,8 +29796,8 @@
       <c r="B51" s="135" t="s">
         <v>816</v>
       </c>
-      <c r="C51" s="429"/>
-      <c r="D51" s="431"/>
+      <c r="C51" s="421"/>
+      <c r="D51" s="423"/>
       <c r="E51" s="30" t="s">
         <v>51</v>
       </c>
@@ -30193,17 +30193,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30227,7 +30227,7 @@
       <c r="B1" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="430" t="s">
+      <c r="C1" s="422" t="s">
         <v>829</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -30242,7 +30242,7 @@
       <c r="B2" s="135" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="431"/>
+      <c r="C2" s="423"/>
       <c r="D2" s="30" t="s">
         <v>832</v>
       </c>
@@ -30374,11 +30374,11 @@
       <c r="A12" s="556" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="513"/>
+      <c r="B12" s="520"/>
       <c r="C12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="430" t="s">
+      <c r="D12" s="422" t="s">
         <v>834</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -30390,11 +30390,11 @@
     </row>
     <row r="13" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="557"/>
-      <c r="B13" s="515"/>
+      <c r="B13" s="522"/>
       <c r="C13" s="135" t="s">
         <v>833</v>
       </c>
-      <c r="D13" s="431"/>
+      <c r="D13" s="423"/>
       <c r="E13" s="30" t="s">
         <v>26</v>
       </c>
@@ -31289,10 +31289,10 @@
     </row>
     <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="497" t="s">
+      <c r="A61" s="506" t="s">
         <v>854</v>
       </c>
-      <c r="B61" s="498"/>
+      <c r="B61" s="507"/>
       <c r="C61" s="232" t="s">
         <v>855</v>
       </c>
@@ -31497,17 +31497,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31525,10 +31525,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="558" t="s">
+      <c r="B1" s="560" t="s">
         <v>1185</v>
       </c>
-      <c r="C1" s="503"/>
+      <c r="C1" s="501"/>
       <c r="D1" s="3">
         <v>2018</v>
       </c>
@@ -31898,14 +31898,14 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="454"/>
-      <c r="B16" s="559" t="s">
+      <c r="A16" s="459"/>
+      <c r="B16" s="561" t="s">
         <v>1199</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>1200</v>
       </c>
-      <c r="D16" s="561" t="s">
+      <c r="D16" s="563" t="s">
         <v>1202</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -31917,11 +31917,11 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="471"/>
-      <c r="B17" s="560"/>
+      <c r="B17" s="562"/>
       <c r="C17" s="135" t="s">
         <v>1201</v>
       </c>
-      <c r="D17" s="562"/>
+      <c r="D17" s="564"/>
       <c r="E17" s="30" t="s">
         <v>1203</v>
       </c>
@@ -32355,7 +32355,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="563" t="s">
+      <c r="A47" s="565" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="219">
@@ -32375,7 +32375,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="539"/>
+      <c r="A48" s="549"/>
       <c r="B48" s="7">
         <v>2007</v>
       </c>
@@ -32393,7 +32393,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="539"/>
+      <c r="A49" s="549"/>
       <c r="B49" s="7">
         <v>2014</v>
       </c>
@@ -32411,7 +32411,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="540"/>
+      <c r="A50" s="550"/>
       <c r="B50" s="69">
         <v>2021</v>
       </c>
@@ -32429,7 +32429,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="422" t="s">
+      <c r="A51" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="20">
@@ -32449,7 +32449,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="423"/>
+      <c r="A52" s="416"/>
       <c r="B52" s="20">
         <v>2007</v>
       </c>
@@ -32467,7 +32467,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="423"/>
+      <c r="A53" s="416"/>
       <c r="B53" s="20">
         <v>2014</v>
       </c>
@@ -32485,7 +32485,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="424"/>
+      <c r="A54" s="431"/>
       <c r="B54" s="20">
         <v>2021</v>
       </c>
@@ -32503,7 +32503,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="419" t="s">
+      <c r="A55" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="7">
@@ -32523,7 +32523,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="420"/>
+      <c r="A56" s="413"/>
       <c r="B56" s="7">
         <v>2007</v>
       </c>
@@ -32541,7 +32541,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="420"/>
+      <c r="A57" s="413"/>
       <c r="B57" s="7">
         <v>2014</v>
       </c>
@@ -32559,7 +32559,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="421"/>
+      <c r="A58" s="414"/>
       <c r="B58" s="69">
         <v>2021</v>
       </c>
@@ -32577,7 +32577,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="422" t="s">
+      <c r="A59" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="20">
@@ -32597,7 +32597,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="423"/>
+      <c r="A60" s="416"/>
       <c r="B60" s="20">
         <v>2007</v>
       </c>
@@ -32615,7 +32615,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="423"/>
+      <c r="A61" s="416"/>
       <c r="B61" s="20">
         <v>2014</v>
       </c>
@@ -32633,7 +32633,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="424"/>
+      <c r="A62" s="431"/>
       <c r="B62" s="20">
         <v>2021</v>
       </c>
@@ -32651,7 +32651,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="419" t="s">
+      <c r="A63" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="7">
@@ -32671,7 +32671,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="420"/>
+      <c r="A64" s="413"/>
       <c r="B64" s="7">
         <v>2007</v>
       </c>
@@ -32689,7 +32689,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="420"/>
+      <c r="A65" s="413"/>
       <c r="B65" s="7">
         <v>2014</v>
       </c>
@@ -32707,7 +32707,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="421"/>
+      <c r="A66" s="414"/>
       <c r="B66" s="69">
         <v>2021</v>
       </c>
@@ -32725,7 +32725,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="422" t="s">
+      <c r="A67" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B67" s="20">
@@ -32745,7 +32745,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="423"/>
+      <c r="A68" s="416"/>
       <c r="B68" s="20">
         <v>2007</v>
       </c>
@@ -32763,7 +32763,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="423"/>
+      <c r="A69" s="416"/>
       <c r="B69" s="20">
         <v>2014</v>
       </c>
@@ -32781,7 +32781,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="425"/>
+      <c r="A70" s="417"/>
       <c r="B70" s="24">
         <v>2021</v>
       </c>
@@ -32809,7 +32809,7 @@
       <c r="C73" s="493" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="564" t="s">
+      <c r="D73" s="558" t="s">
         <v>1215</v>
       </c>
       <c r="E73" s="11" t="s">
@@ -32825,7 +32825,7 @@
         <v>1214</v>
       </c>
       <c r="C74" s="494"/>
-      <c r="D74" s="565"/>
+      <c r="D74" s="559"/>
       <c r="E74" s="30" t="s">
         <v>1216</v>
       </c>
@@ -32958,7 +32958,7 @@
       <c r="A83" s="447" t="s">
         <v>556</v>
       </c>
-      <c r="B83" s="428" t="s">
+      <c r="B83" s="420" t="s">
         <v>1218</v>
       </c>
       <c r="C83" s="362" t="s">
@@ -32973,7 +32973,7 @@
     </row>
     <row r="84" spans="1:5" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="448"/>
-      <c r="B84" s="429"/>
+      <c r="B84" s="421"/>
       <c r="C84" s="38" t="s">
         <v>1220</v>
       </c>
@@ -33190,6 +33190,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A47:A50"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="B83:B84"/>
@@ -33199,12 +33205,6 @@
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A47:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33563,7 +33563,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="567"/>
+      <c r="A1" s="579"/>
       <c r="B1" s="311" t="s">
         <v>199</v>
       </c>
@@ -33579,7 +33579,7 @@
       <c r="F1" s="566" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="568" t="s">
+      <c r="G1" s="580" t="s">
         <v>76</v>
       </c>
       <c r="H1" s="566" t="s">
@@ -33594,7 +33594,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="567"/>
+      <c r="A2" s="579"/>
       <c r="B2" s="311" t="s">
         <v>200</v>
       </c>
@@ -33604,7 +33604,7 @@
       </c>
       <c r="E2" s="566"/>
       <c r="F2" s="566"/>
-      <c r="G2" s="568"/>
+      <c r="G2" s="580"/>
       <c r="H2" s="311" t="s">
         <v>1250</v>
       </c>
@@ -35222,7 +35222,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="569" t="s">
+      <c r="A55" s="575" t="s">
         <v>1253</v>
       </c>
       <c r="B55" s="385">
@@ -35254,7 +35254,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="570"/>
+      <c r="A56" s="576"/>
       <c r="B56" s="379">
         <v>2014</v>
       </c>
@@ -35284,7 +35284,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="571"/>
+      <c r="A57" s="577"/>
       <c r="B57" s="379">
         <v>2021</v>
       </c>
@@ -35314,7 +35314,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="572" t="s">
+      <c r="A58" s="573" t="s">
         <v>1258</v>
       </c>
       <c r="B58" s="381">
@@ -35346,7 +35346,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="573"/>
+      <c r="A59" s="568"/>
       <c r="B59" s="381">
         <v>2014</v>
       </c>
@@ -35406,7 +35406,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="569" t="s">
+      <c r="A61" s="575" t="s">
         <v>1255</v>
       </c>
       <c r="B61" s="379">
@@ -35438,7 +35438,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="570"/>
+      <c r="A62" s="576"/>
       <c r="B62" s="379">
         <v>2014</v>
       </c>
@@ -35468,7 +35468,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="571"/>
+      <c r="A63" s="577"/>
       <c r="B63" s="379">
         <v>2021</v>
       </c>
@@ -35498,7 +35498,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="572" t="s">
+      <c r="A64" s="573" t="s">
         <v>1251</v>
       </c>
       <c r="B64" s="381">
@@ -35530,7 +35530,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="573"/>
+      <c r="A65" s="568"/>
       <c r="B65" s="381">
         <v>2014</v>
       </c>
@@ -35590,7 +35590,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="569" t="s">
+      <c r="A67" s="575" t="s">
         <v>1260</v>
       </c>
       <c r="B67" s="379">
@@ -35622,7 +35622,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="570"/>
+      <c r="A68" s="576"/>
       <c r="B68" s="379">
         <v>2014</v>
       </c>
@@ -35652,7 +35652,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="571"/>
+      <c r="A69" s="577"/>
       <c r="B69" s="379">
         <v>2021</v>
       </c>
@@ -35682,7 +35682,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="572" t="s">
+      <c r="A70" s="573" t="s">
         <v>1254</v>
       </c>
       <c r="B70" s="381">
@@ -35714,7 +35714,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="573"/>
+      <c r="A71" s="568"/>
       <c r="B71" s="381">
         <v>2014</v>
       </c>
@@ -35774,7 +35774,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="569" t="s">
+      <c r="A73" s="575" t="s">
         <v>1262</v>
       </c>
       <c r="B73" s="379">
@@ -35806,7 +35806,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="570"/>
+      <c r="A74" s="576"/>
       <c r="B74" s="379">
         <v>2014</v>
       </c>
@@ -35836,7 +35836,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="571"/>
+      <c r="A75" s="577"/>
       <c r="B75" s="379">
         <v>2021</v>
       </c>
@@ -35866,7 +35866,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="572" t="s">
+      <c r="A76" s="573" t="s">
         <v>1252</v>
       </c>
       <c r="B76" s="381">
@@ -35898,7 +35898,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="573"/>
+      <c r="A77" s="568"/>
       <c r="B77" s="381">
         <v>2014</v>
       </c>
@@ -35958,7 +35958,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="569" t="s">
+      <c r="A79" s="575" t="s">
         <v>1270</v>
       </c>
       <c r="B79" s="379">
@@ -35990,7 +35990,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="570"/>
+      <c r="A80" s="576"/>
       <c r="B80" s="379">
         <v>2014</v>
       </c>
@@ -36020,7 +36020,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="571"/>
+      <c r="A81" s="577"/>
       <c r="B81" s="379">
         <v>2021</v>
       </c>
@@ -36050,7 +36050,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="572" t="s">
+      <c r="A82" s="573" t="s">
         <v>66</v>
       </c>
       <c r="B82" s="381">
@@ -36082,7 +36082,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="573"/>
+      <c r="A83" s="568"/>
       <c r="B83" s="381">
         <v>2014</v>
       </c>
@@ -36142,7 +36142,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="569" t="s">
+      <c r="A85" s="575" t="s">
         <v>1263</v>
       </c>
       <c r="B85" s="379">
@@ -36174,7 +36174,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="570"/>
+      <c r="A86" s="576"/>
       <c r="B86" s="379">
         <v>2014</v>
       </c>
@@ -36204,7 +36204,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="571"/>
+      <c r="A87" s="577"/>
       <c r="B87" s="379">
         <v>2021</v>
       </c>
@@ -36234,7 +36234,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="569" t="s">
+      <c r="A88" s="575" t="s">
         <v>1265</v>
       </c>
       <c r="B88" s="385">
@@ -36266,7 +36266,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="570"/>
+      <c r="A89" s="576"/>
       <c r="B89" s="379">
         <v>2014</v>
       </c>
@@ -36296,7 +36296,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="571"/>
+      <c r="A90" s="577"/>
       <c r="B90" s="379">
         <v>2021</v>
       </c>
@@ -36326,7 +36326,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="572" t="s">
+      <c r="A91" s="573" t="s">
         <v>1259</v>
       </c>
       <c r="B91" s="381">
@@ -36358,7 +36358,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="573"/>
+      <c r="A92" s="568"/>
       <c r="B92" s="381">
         <v>2014</v>
       </c>
@@ -36418,7 +36418,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="569" t="s">
+      <c r="A94" s="575" t="s">
         <v>1261</v>
       </c>
       <c r="B94" s="379">
@@ -36450,7 +36450,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="570"/>
+      <c r="A95" s="576"/>
       <c r="B95" s="379">
         <v>2014</v>
       </c>
@@ -36480,7 +36480,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="571"/>
+      <c r="A96" s="577"/>
       <c r="B96" s="379">
         <v>2021</v>
       </c>
@@ -36510,7 +36510,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="572" t="s">
+      <c r="A97" s="573" t="s">
         <v>1257</v>
       </c>
       <c r="B97" s="381">
@@ -36542,7 +36542,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="573"/>
+      <c r="A98" s="568"/>
       <c r="B98" s="381">
         <v>2014</v>
       </c>
@@ -36696,7 +36696,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="572" t="s">
+      <c r="A103" s="573" t="s">
         <v>1264</v>
       </c>
       <c r="B103" s="381">
@@ -36728,7 +36728,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="573"/>
+      <c r="A104" s="568"/>
       <c r="B104" s="381">
         <v>2014</v>
       </c>
@@ -36788,7 +36788,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="569" t="s">
+      <c r="A106" s="575" t="s">
         <v>1275</v>
       </c>
       <c r="B106" s="379">
@@ -36820,7 +36820,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="570"/>
+      <c r="A107" s="576"/>
       <c r="B107" s="379">
         <v>2014</v>
       </c>
@@ -36850,7 +36850,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="571"/>
+      <c r="A108" s="577"/>
       <c r="B108" s="379">
         <v>2021</v>
       </c>
@@ -36880,7 +36880,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="572" t="s">
+      <c r="A109" s="573" t="s">
         <v>1256</v>
       </c>
       <c r="B109" s="381">
@@ -36912,7 +36912,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="573"/>
+      <c r="A110" s="568"/>
       <c r="B110" s="381">
         <v>2014</v>
       </c>
@@ -36972,7 +36972,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="569" t="s">
+      <c r="A112" s="575" t="s">
         <v>1287</v>
       </c>
       <c r="B112" s="379">
@@ -37004,7 +37004,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="570"/>
+      <c r="A113" s="576"/>
       <c r="B113" s="379">
         <v>2014</v>
       </c>
@@ -37034,7 +37034,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="571"/>
+      <c r="A114" s="577"/>
       <c r="B114" s="379">
         <v>2021</v>
       </c>
@@ -37064,7 +37064,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="572" t="s">
+      <c r="A115" s="573" t="s">
         <v>1266</v>
       </c>
       <c r="B115" s="381">
@@ -37096,7 +37096,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="573"/>
+      <c r="A116" s="568"/>
       <c r="B116" s="381">
         <v>2014</v>
       </c>
@@ -37156,7 +37156,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="569" t="s">
+      <c r="A118" s="575" t="s">
         <v>1288</v>
       </c>
       <c r="B118" s="379">
@@ -37188,7 +37188,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="570"/>
+      <c r="A119" s="576"/>
       <c r="B119" s="379">
         <v>2014</v>
       </c>
@@ -37218,7 +37218,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="571"/>
+      <c r="A120" s="577"/>
       <c r="B120" s="379">
         <v>2021</v>
       </c>
@@ -37248,11 +37248,11 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="575"/>
+      <c r="A123" s="578"/>
       <c r="B123" s="311" t="s">
         <v>1289</v>
       </c>
-      <c r="C123" s="580" t="s">
+      <c r="C123" s="572" t="s">
         <v>1291</v>
       </c>
       <c r="D123" s="311" t="s">
@@ -37278,11 +37278,11 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A124" s="575"/>
+      <c r="A124" s="578"/>
       <c r="B124" s="389" t="s">
         <v>1290</v>
       </c>
-      <c r="C124" s="580"/>
+      <c r="C124" s="572"/>
       <c r="D124" s="316" t="s">
         <v>1293</v>
       </c>
@@ -37302,9 +37302,9 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="575"/>
+      <c r="A125" s="578"/>
       <c r="B125" s="390"/>
-      <c r="C125" s="580"/>
+      <c r="C125" s="572"/>
       <c r="D125" s="391"/>
       <c r="E125" s="316" t="s">
         <v>1293</v>
@@ -37765,25 +37765,25 @@
       <c r="A140" s="392" t="s">
         <v>1314</v>
       </c>
-      <c r="B140" s="576">
+      <c r="B140" s="567">
         <v>1182000</v>
       </c>
-      <c r="C140" s="573" t="s">
+      <c r="C140" s="568" t="s">
         <v>50</v>
       </c>
-      <c r="D140" s="577">
+      <c r="D140" s="569">
         <v>1182000</v>
       </c>
-      <c r="E140" s="578" t="s">
+      <c r="E140" s="570" t="s">
         <v>50</v>
       </c>
-      <c r="F140" s="578" t="s">
+      <c r="F140" s="570" t="s">
         <v>217</v>
       </c>
-      <c r="G140" s="578">
+      <c r="G140" s="570">
         <v>2019</v>
       </c>
-      <c r="H140" s="579" t="s">
+      <c r="H140" s="571" t="s">
         <v>1311</v>
       </c>
       <c r="I140" s="30" t="s">
@@ -37797,13 +37797,13 @@
       <c r="A141" s="392" t="s">
         <v>1315</v>
       </c>
-      <c r="B141" s="576"/>
-      <c r="C141" s="573"/>
-      <c r="D141" s="577"/>
-      <c r="E141" s="578"/>
-      <c r="F141" s="578"/>
-      <c r="G141" s="578"/>
-      <c r="H141" s="579"/>
+      <c r="B141" s="567"/>
+      <c r="C141" s="568"/>
+      <c r="D141" s="569"/>
+      <c r="E141" s="570"/>
+      <c r="F141" s="570"/>
+      <c r="G141" s="570"/>
+      <c r="H141" s="571"/>
       <c r="I141" s="30" t="s">
         <v>1308</v>
       </c>
@@ -37909,21 +37909,17 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="H123:H125"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="A106:A108"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A73:A75"/>
@@ -37936,17 +37932,21 @@
     <mergeCell ref="A94:A96"/>
     <mergeCell ref="A97:A99"/>
     <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="H123:H125"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="C123:C125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38250,7 +38250,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="422" t="s">
+      <c r="A18" s="415" t="s">
         <v>174</v>
       </c>
       <c r="B18" s="20">
@@ -38270,7 +38270,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="423"/>
+      <c r="A19" s="416"/>
       <c r="B19" s="20">
         <v>2007</v>
       </c>
@@ -38288,7 +38288,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="423"/>
+      <c r="A20" s="416"/>
       <c r="B20" s="20">
         <v>2014</v>
       </c>
@@ -38306,7 +38306,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="424"/>
+      <c r="A21" s="431"/>
       <c r="B21" s="20">
         <v>2021</v>
       </c>
@@ -38324,7 +38324,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="419" t="s">
+      <c r="A22" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7">
@@ -38344,7 +38344,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="420"/>
+      <c r="A23" s="413"/>
       <c r="B23" s="7">
         <v>2007</v>
       </c>
@@ -38362,7 +38362,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="420"/>
+      <c r="A24" s="413"/>
       <c r="B24" s="7">
         <v>2014</v>
       </c>
@@ -38380,7 +38380,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="421"/>
+      <c r="A25" s="414"/>
       <c r="B25" s="69">
         <v>2021</v>
       </c>
@@ -38398,7 +38398,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="422" t="s">
+      <c r="A26" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="20">
@@ -38418,7 +38418,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="423"/>
+      <c r="A27" s="416"/>
       <c r="B27" s="20">
         <v>2007</v>
       </c>
@@ -38436,7 +38436,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="423"/>
+      <c r="A28" s="416"/>
       <c r="B28" s="20">
         <v>2014</v>
       </c>
@@ -38454,7 +38454,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="423"/>
+      <c r="A29" s="416"/>
       <c r="B29" s="20">
         <v>2021</v>
       </c>
@@ -38472,7 +38472,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="420" t="s">
+      <c r="A30" s="413" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="7">
@@ -38492,7 +38492,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="420"/>
+      <c r="A31" s="413"/>
       <c r="B31" s="7">
         <v>2007</v>
       </c>
@@ -38510,7 +38510,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="420"/>
+      <c r="A32" s="413"/>
       <c r="B32" s="7">
         <v>2014</v>
       </c>
@@ -38528,7 +38528,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="421"/>
+      <c r="A33" s="414"/>
       <c r="B33" s="69">
         <v>2021</v>
       </c>
@@ -38546,7 +38546,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="422" t="s">
+      <c r="A34" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="20">
@@ -38566,7 +38566,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="423"/>
+      <c r="A35" s="416"/>
       <c r="B35" s="20">
         <v>2007</v>
       </c>
@@ -38584,7 +38584,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="423"/>
+      <c r="A36" s="416"/>
       <c r="B36" s="20">
         <v>2014</v>
       </c>
@@ -38602,7 +38602,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="424"/>
+      <c r="A37" s="431"/>
       <c r="B37" s="20">
         <v>2021</v>
       </c>
@@ -39223,24 +39223,24 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="454"/>
-      <c r="B30" s="456">
+      <c r="A30" s="459"/>
+      <c r="B30" s="461">
         <v>2017</v>
       </c>
-      <c r="C30" s="456">
+      <c r="C30" s="461">
         <v>2018</v>
       </c>
-      <c r="D30" s="458">
+      <c r="D30" s="463">
         <v>2019</v>
       </c>
-      <c r="E30" s="463">
+      <c r="E30" s="458">
         <v>2020</v>
       </c>
-      <c r="F30" s="462"/>
-      <c r="G30" s="460">
+      <c r="F30" s="457"/>
+      <c r="G30" s="455">
         <v>2021</v>
       </c>
-      <c r="H30" s="461"/>
+      <c r="H30" s="456"/>
       <c r="I30" s="11" t="s">
         <v>8</v>
       </c>
@@ -39249,10 +39249,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="455"/>
-      <c r="B31" s="457"/>
-      <c r="C31" s="457"/>
-      <c r="D31" s="459"/>
+      <c r="A31" s="460"/>
+      <c r="B31" s="462"/>
+      <c r="C31" s="462"/>
+      <c r="D31" s="464"/>
       <c r="E31" s="336" t="s">
         <v>951</v>
       </c>
@@ -39594,17 +39594,17 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="426" t="s">
+      <c r="A44" s="418" t="s">
         <v>155</v>
       </c>
-      <c r="B44" s="460" t="s">
+      <c r="B44" s="455" t="s">
         <v>613</v>
       </c>
-      <c r="C44" s="462"/>
+      <c r="C44" s="457"/>
       <c r="D44" s="98" t="s">
         <v>956</v>
       </c>
-      <c r="E44" s="430" t="s">
+      <c r="E44" s="422" t="s">
         <v>931</v>
       </c>
       <c r="F44" s="11" t="s">
@@ -39615,7 +39615,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="427"/>
+      <c r="A45" s="419"/>
       <c r="B45" s="173" t="s">
         <v>958</v>
       </c>
@@ -39625,7 +39625,7 @@
       <c r="D45" s="135" t="s">
         <v>957</v>
       </c>
-      <c r="E45" s="431"/>
+      <c r="E45" s="423"/>
       <c r="F45" s="54" t="s">
         <v>969</v>
       </c>
@@ -39918,7 +39918,7 @@
       <c r="A65" s="447" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="428" t="s">
+      <c r="B65" s="420" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="46" t="s">
@@ -39936,7 +39936,7 @@
     </row>
     <row r="66" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="448"/>
-      <c r="B66" s="429"/>
+      <c r="B66" s="421"/>
       <c r="C66" s="135" t="s">
         <v>197</v>
       </c>
@@ -39951,7 +39951,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="419" t="s">
+      <c r="A67" s="412" t="s">
         <v>16</v>
       </c>
       <c r="B67" s="7">
@@ -39971,7 +39971,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="420"/>
+      <c r="A68" s="413"/>
       <c r="B68" s="7">
         <v>2007</v>
       </c>
@@ -39989,7 +39989,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="420"/>
+      <c r="A69" s="413"/>
       <c r="B69" s="7">
         <v>2014</v>
       </c>
@@ -40007,7 +40007,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="421"/>
+      <c r="A70" s="414"/>
       <c r="B70" s="69">
         <v>2021</v>
       </c>
@@ -40025,7 +40025,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="422" t="s">
+      <c r="A71" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B71" s="20">
@@ -40045,7 +40045,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="423"/>
+      <c r="A72" s="416"/>
       <c r="B72" s="20">
         <v>2007</v>
       </c>
@@ -40063,7 +40063,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="423"/>
+      <c r="A73" s="416"/>
       <c r="B73" s="20">
         <v>2014</v>
       </c>
@@ -40081,7 +40081,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="424"/>
+      <c r="A74" s="431"/>
       <c r="B74" s="20">
         <v>2021</v>
       </c>
@@ -40099,7 +40099,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="432" t="s">
+      <c r="A75" s="441" t="s">
         <v>18</v>
       </c>
       <c r="B75" s="7">
@@ -40119,7 +40119,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="433"/>
+      <c r="A76" s="442"/>
       <c r="B76" s="7">
         <v>2007</v>
       </c>
@@ -40137,7 +40137,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="433"/>
+      <c r="A77" s="442"/>
       <c r="B77" s="7">
         <v>2014</v>
       </c>
@@ -40155,7 +40155,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="464"/>
+      <c r="A78" s="454"/>
       <c r="B78" s="69">
         <v>2021</v>
       </c>
@@ -40173,7 +40173,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="422" t="s">
+      <c r="A79" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B79" s="20">
@@ -40193,7 +40193,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="423"/>
+      <c r="A80" s="416"/>
       <c r="B80" s="20">
         <v>2007</v>
       </c>
@@ -40211,7 +40211,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="423"/>
+      <c r="A81" s="416"/>
       <c r="B81" s="20">
         <v>2014</v>
       </c>
@@ -40229,7 +40229,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="424"/>
+      <c r="A82" s="431"/>
       <c r="B82" s="20">
         <v>2021</v>
       </c>
@@ -40247,7 +40247,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="419" t="s">
+      <c r="A83" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B83" s="7">
@@ -40267,7 +40267,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="420"/>
+      <c r="A84" s="413"/>
       <c r="B84" s="7">
         <v>2007</v>
       </c>
@@ -40285,7 +40285,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="420"/>
+      <c r="A85" s="413"/>
       <c r="B85" s="7">
         <v>2014</v>
       </c>
@@ -40303,7 +40303,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="421"/>
+      <c r="A86" s="414"/>
       <c r="B86" s="69">
         <v>2021</v>
       </c>
@@ -40321,7 +40321,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="422" t="s">
+      <c r="A87" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B87" s="20">
@@ -40341,7 +40341,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="423"/>
+      <c r="A88" s="416"/>
       <c r="B88" s="20">
         <v>2007</v>
       </c>
@@ -40359,7 +40359,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="423"/>
+      <c r="A89" s="416"/>
       <c r="B89" s="20">
         <v>2014</v>
       </c>
@@ -40377,7 +40377,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="425"/>
+      <c r="A90" s="417"/>
       <c r="B90" s="24">
         <v>2021</v>
       </c>
@@ -40402,7 +40402,7 @@
       <c r="B93" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="C93" s="428" t="s">
+      <c r="C93" s="420" t="s">
         <v>44</v>
       </c>
       <c r="D93" s="47" t="s">
@@ -40420,7 +40420,7 @@
       <c r="B94" s="135" t="s">
         <v>979</v>
       </c>
-      <c r="C94" s="429"/>
+      <c r="C94" s="421"/>
       <c r="D94" s="136" t="s">
         <v>924</v>
       </c>
@@ -40988,6 +40988,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="A67:A70"/>
@@ -40996,18 +41008,6 @@
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A87:A90"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41570,7 +41570,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="419" t="s">
+      <c r="A26" s="412" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="69">
@@ -41590,7 +41590,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="420"/>
+      <c r="A27" s="413"/>
       <c r="B27" s="69">
         <v>2007</v>
       </c>
@@ -41608,7 +41608,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="420"/>
+      <c r="A28" s="413"/>
       <c r="B28" s="69">
         <v>2014</v>
       </c>
@@ -41626,7 +41626,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="421"/>
+      <c r="A29" s="414"/>
       <c r="B29" s="69">
         <v>2021</v>
       </c>
@@ -41644,7 +41644,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="422" t="s">
+      <c r="A30" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="20">
@@ -41664,7 +41664,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="423"/>
+      <c r="A31" s="416"/>
       <c r="B31" s="20">
         <v>2007</v>
       </c>
@@ -41682,7 +41682,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="423"/>
+      <c r="A32" s="416"/>
       <c r="B32" s="20">
         <v>2014</v>
       </c>
@@ -41700,7 +41700,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="424"/>
+      <c r="A33" s="431"/>
       <c r="B33" s="20">
         <v>2021</v>
       </c>
@@ -41718,7 +41718,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="419" t="s">
+      <c r="A34" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="69">
@@ -41738,7 +41738,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="420"/>
+      <c r="A35" s="413"/>
       <c r="B35" s="69">
         <v>2007</v>
       </c>
@@ -41756,7 +41756,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="420"/>
+      <c r="A36" s="413"/>
       <c r="B36" s="69">
         <v>2014</v>
       </c>
@@ -41774,7 +41774,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="421"/>
+      <c r="A37" s="414"/>
       <c r="B37" s="69">
         <v>2021</v>
       </c>
@@ -41792,7 +41792,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="422" t="s">
+      <c r="A38" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="20">
@@ -41812,7 +41812,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="423"/>
+      <c r="A39" s="416"/>
       <c r="B39" s="20">
         <v>2007</v>
       </c>
@@ -41830,7 +41830,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="423"/>
+      <c r="A40" s="416"/>
       <c r="B40" s="20">
         <v>2014</v>
       </c>
@@ -41848,7 +41848,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="425"/>
+      <c r="A41" s="417"/>
       <c r="B41" s="24">
         <v>2021</v>
       </c>
@@ -41866,7 +41866,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="466" t="s">
+      <c r="A42" s="469" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="69">
@@ -41886,7 +41886,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="420"/>
+      <c r="A43" s="413"/>
       <c r="B43" s="69">
         <v>2007</v>
       </c>
@@ -41904,7 +41904,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="420"/>
+      <c r="A44" s="413"/>
       <c r="B44" s="69">
         <v>2014</v>
       </c>
@@ -41922,7 +41922,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="421"/>
+      <c r="A45" s="414"/>
       <c r="B45" s="69">
         <v>2021</v>
       </c>
@@ -41940,7 +41940,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="422" t="s">
+      <c r="A46" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="20">
@@ -41960,7 +41960,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="423"/>
+      <c r="A47" s="416"/>
       <c r="B47" s="20">
         <v>2007</v>
       </c>
@@ -41978,7 +41978,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="423"/>
+      <c r="A48" s="416"/>
       <c r="B48" s="20">
         <v>2014</v>
       </c>
@@ -41996,7 +41996,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="425"/>
+      <c r="A49" s="417"/>
       <c r="B49" s="24">
         <v>2021</v>
       </c>
@@ -42272,7 +42272,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="467" t="s">
+      <c r="A65" s="465" t="s">
         <v>138</v>
       </c>
       <c r="B65" s="104" t="s">
@@ -42301,7 +42301,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="468"/>
+      <c r="A66" s="466"/>
       <c r="B66" s="104" t="s">
         <v>140</v>
       </c>
@@ -42328,7 +42328,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="465" t="s">
+      <c r="A67" s="467" t="s">
         <v>141</v>
       </c>
       <c r="B67" s="107" t="s">
@@ -42384,7 +42384,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="467" t="s">
+      <c r="A69" s="465" t="s">
         <v>142</v>
       </c>
       <c r="B69" s="104" t="s">
@@ -42413,7 +42413,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="468"/>
+      <c r="A70" s="466"/>
       <c r="B70" s="104" t="s">
         <v>140</v>
       </c>
@@ -42440,7 +42440,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="465" t="s">
+      <c r="A71" s="467" t="s">
         <v>143</v>
       </c>
       <c r="B71" s="101" t="s">
@@ -42496,7 +42496,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="467" t="s">
+      <c r="A73" s="465" t="s">
         <v>144</v>
       </c>
       <c r="B73" s="104" t="s">
@@ -42525,7 +42525,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="468"/>
+      <c r="A74" s="466"/>
       <c r="B74" s="104" t="s">
         <v>140</v>
       </c>
@@ -42552,7 +42552,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="465" t="s">
+      <c r="A75" s="467" t="s">
         <v>145</v>
       </c>
       <c r="B75" s="101" t="s">
@@ -42608,7 +42608,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="467" t="s">
+      <c r="A77" s="465" t="s">
         <v>146</v>
       </c>
       <c r="B77" s="104" t="s">
@@ -42637,7 +42637,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="468"/>
+      <c r="A78" s="466"/>
       <c r="B78" s="104" t="s">
         <v>140</v>
       </c>
@@ -42664,7 +42664,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="465" t="s">
+      <c r="A79" s="467" t="s">
         <v>147</v>
       </c>
       <c r="B79" s="101" t="s">
@@ -42720,7 +42720,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="467" t="s">
+      <c r="A81" s="465" t="s">
         <v>148</v>
       </c>
       <c r="B81" s="104" t="s">
@@ -42749,7 +42749,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="469"/>
+      <c r="A82" s="468"/>
       <c r="B82" s="128" t="s">
         <v>140</v>
       </c>
@@ -42777,11 +42777,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
@@ -42792,6 +42787,11 @@
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42808,7 +42808,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="454"/>
+      <c r="A1" s="459"/>
       <c r="B1" s="44" t="s">
         <v>1003</v>
       </c>
@@ -43238,7 +43238,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="419" t="s">
+      <c r="A31" s="412" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="7">
@@ -43258,7 +43258,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="420"/>
+      <c r="A32" s="413"/>
       <c r="B32" s="7">
         <v>2007</v>
       </c>
@@ -43276,7 +43276,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="420"/>
+      <c r="A33" s="413"/>
       <c r="B33" s="7">
         <v>2014</v>
       </c>
@@ -43294,7 +43294,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="421"/>
+      <c r="A34" s="414"/>
       <c r="B34" s="69">
         <v>2021</v>
       </c>
@@ -43386,7 +43386,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="419" t="s">
+      <c r="A39" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="7">
@@ -43406,7 +43406,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="420"/>
+      <c r="A40" s="413"/>
       <c r="B40" s="7">
         <v>2007</v>
       </c>
@@ -43424,7 +43424,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="420"/>
+      <c r="A41" s="413"/>
       <c r="B41" s="7">
         <v>2014</v>
       </c>
@@ -43442,7 +43442,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="421"/>
+      <c r="A42" s="414"/>
       <c r="B42" s="69">
         <v>2021</v>
       </c>
@@ -43534,7 +43534,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="419" t="s">
+      <c r="A47" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B47" s="7">
@@ -43554,7 +43554,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="420"/>
+      <c r="A48" s="413"/>
       <c r="B48" s="7">
         <v>2007</v>
       </c>
@@ -43572,7 +43572,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="420"/>
+      <c r="A49" s="413"/>
       <c r="B49" s="7">
         <v>2014</v>
       </c>
@@ -43590,7 +43590,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="421"/>
+      <c r="A50" s="414"/>
       <c r="B50" s="69">
         <v>2021</v>
       </c>
@@ -43608,7 +43608,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="422" t="s">
+      <c r="A51" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="20">
@@ -43628,7 +43628,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="423"/>
+      <c r="A52" s="416"/>
       <c r="B52" s="20">
         <v>2007</v>
       </c>
@@ -43646,7 +43646,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="423"/>
+      <c r="A53" s="416"/>
       <c r="B53" s="20">
         <v>2014</v>
       </c>
@@ -43664,7 +43664,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="425"/>
+      <c r="A54" s="417"/>
       <c r="B54" s="24">
         <v>2021</v>
       </c>
@@ -43683,13 +43683,13 @@
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:6" ht="48" x14ac:dyDescent="0.25">
-      <c r="A57" s="426" t="s">
+      <c r="A57" s="418" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="445" t="s">
+      <c r="C57" s="439" t="s">
         <v>44</v>
       </c>
       <c r="D57" s="47" t="s">
@@ -43703,7 +43703,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="427"/>
+      <c r="A58" s="419"/>
       <c r="B58" s="178" t="s">
         <v>1016</v>
       </c>
@@ -44264,13 +44264,13 @@
       <c r="A22" s="447" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="428" t="s">
+      <c r="B22" s="420" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="430" t="s">
+      <c r="D22" s="422" t="s">
         <v>198</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -44282,11 +44282,11 @@
     </row>
     <row r="23" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="448"/>
-      <c r="B23" s="429"/>
+      <c r="B23" s="421"/>
       <c r="C23" s="135" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="431"/>
+      <c r="D23" s="423"/>
       <c r="E23" s="30" t="s">
         <v>26</v>
       </c>
@@ -44371,7 +44371,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="422" t="s">
+      <c r="A28" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="20">
@@ -44391,7 +44391,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="423"/>
+      <c r="A29" s="416"/>
       <c r="B29" s="20">
         <v>2007</v>
       </c>
@@ -44409,7 +44409,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="423"/>
+      <c r="A30" s="416"/>
       <c r="B30" s="20">
         <v>2014</v>
       </c>
@@ -44427,7 +44427,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="424"/>
+      <c r="A31" s="431"/>
       <c r="B31" s="20">
         <v>2021</v>
       </c>
@@ -44445,7 +44445,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="419" t="s">
+      <c r="A32" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="7">
@@ -44465,7 +44465,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="420"/>
+      <c r="A33" s="413"/>
       <c r="B33" s="7">
         <v>2007</v>
       </c>
@@ -44483,7 +44483,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="420"/>
+      <c r="A34" s="413"/>
       <c r="B34" s="7">
         <v>2014</v>
       </c>
@@ -44501,7 +44501,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="421"/>
+      <c r="A35" s="414"/>
       <c r="B35" s="69">
         <v>2021</v>
       </c>
@@ -44519,7 +44519,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="422" t="s">
+      <c r="A36" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="20">
@@ -44539,7 +44539,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="423"/>
+      <c r="A37" s="416"/>
       <c r="B37" s="20">
         <v>2007</v>
       </c>
@@ -44557,7 +44557,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="423"/>
+      <c r="A38" s="416"/>
       <c r="B38" s="20">
         <v>2014</v>
       </c>
@@ -44575,7 +44575,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="424"/>
+      <c r="A39" s="431"/>
       <c r="B39" s="20">
         <v>2021</v>
       </c>
@@ -44593,7 +44593,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="419" t="s">
+      <c r="A40" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="7">
@@ -44613,7 +44613,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="420"/>
+      <c r="A41" s="413"/>
       <c r="B41" s="7">
         <v>2007</v>
       </c>
@@ -44631,7 +44631,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="420"/>
+      <c r="A42" s="413"/>
       <c r="B42" s="7">
         <v>2014</v>
       </c>
@@ -44649,7 +44649,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="420"/>
+      <c r="A43" s="413"/>
       <c r="B43" s="7">
         <v>2016</v>
       </c>
@@ -44667,7 +44667,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="421"/>
+      <c r="A44" s="414"/>
       <c r="B44" s="69">
         <v>2021</v>
       </c>
@@ -44685,7 +44685,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="422" t="s">
+      <c r="A45" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="20">
@@ -44705,7 +44705,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="423"/>
+      <c r="A46" s="416"/>
       <c r="B46" s="20">
         <v>2007</v>
       </c>
@@ -44723,7 +44723,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="423"/>
+      <c r="A47" s="416"/>
       <c r="B47" s="20">
         <v>2014</v>
       </c>
@@ -44741,7 +44741,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="425"/>
+      <c r="A48" s="417"/>
       <c r="B48" s="24">
         <v>2021</v>
       </c>
@@ -45989,7 +45989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71A5AB2-74E5-4BAB-B518-C0BA9E135C7E}">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
@@ -46410,13 +46410,13 @@
       <c r="A24" s="447" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="428" t="s">
+      <c r="B24" s="420" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="430" t="s">
+      <c r="D24" s="422" t="s">
         <v>274</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -46428,11 +46428,11 @@
     </row>
     <row r="25" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="448"/>
-      <c r="B25" s="429"/>
+      <c r="B25" s="421"/>
       <c r="C25" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="431"/>
+      <c r="D25" s="423"/>
       <c r="E25" s="30" t="s">
         <v>26</v>
       </c>
@@ -46932,7 +46932,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="40" t="s">
         <v>282</v>
       </c>
@@ -46985,7 +46985,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A56" s="447" t="s">
         <v>12</v>
       </c>
@@ -47166,7 +47166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="40" t="s">
         <v>289</v>
       </c>
@@ -47192,7 +47192,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="40" t="s">
         <v>290</v>
       </c>
@@ -47218,7 +47218,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="42" t="s">
         <v>291</v>
       </c>
@@ -47544,7 +47544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="40" t="s">
         <v>302</v>
       </c>
@@ -47564,7 +47564,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="40" t="s">
         <v>303</v>
       </c>
@@ -47584,7 +47584,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="40" t="s">
         <v>304</v>
       </c>
@@ -47643,7 +47643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>307</v>
       </c>
@@ -47663,7 +47663,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>308</v>
       </c>
@@ -47683,7 +47683,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>309</v>
       </c>
@@ -47703,7 +47703,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>310</v>
       </c>
@@ -48125,17 +48125,17 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="454"/>
-      <c r="B18" s="456" t="s">
+      <c r="A18" s="459"/>
+      <c r="B18" s="461" t="s">
         <v>343</v>
       </c>
       <c r="C18" s="493" t="s">
         <v>344</v>
       </c>
-      <c r="D18" s="463" t="s">
+      <c r="D18" s="458" t="s">
         <v>345</v>
       </c>
-      <c r="E18" s="462"/>
+      <c r="E18" s="457"/>
       <c r="F18" s="171"/>
       <c r="G18" s="495" t="s">
         <v>346</v>
@@ -48632,7 +48632,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="419" t="s">
+      <c r="A45" s="412" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="7">
@@ -48652,7 +48652,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="420"/>
+      <c r="A46" s="413"/>
       <c r="B46" s="7">
         <v>2007</v>
       </c>
@@ -48670,7 +48670,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="420"/>
+      <c r="A47" s="413"/>
       <c r="B47" s="7">
         <v>2014</v>
       </c>
@@ -48688,7 +48688,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="421"/>
+      <c r="A48" s="414"/>
       <c r="B48" s="69">
         <v>2021</v>
       </c>
@@ -48706,7 +48706,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="422" t="s">
+      <c r="A49" s="415" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="20">
@@ -48726,7 +48726,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="423"/>
+      <c r="A50" s="416"/>
       <c r="B50" s="20">
         <v>2007</v>
       </c>
@@ -48744,7 +48744,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="423"/>
+      <c r="A51" s="416"/>
       <c r="B51" s="20">
         <v>2014</v>
       </c>
@@ -48762,7 +48762,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="424"/>
+      <c r="A52" s="431"/>
       <c r="B52" s="20">
         <v>2021</v>
       </c>
@@ -48780,7 +48780,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="419" t="s">
+      <c r="A53" s="412" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="7">
@@ -48800,7 +48800,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="420"/>
+      <c r="A54" s="413"/>
       <c r="B54" s="7">
         <v>2007</v>
       </c>
@@ -48818,7 +48818,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="420"/>
+      <c r="A55" s="413"/>
       <c r="B55" s="7">
         <v>2014</v>
       </c>
@@ -48836,7 +48836,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="421"/>
+      <c r="A56" s="414"/>
       <c r="B56" s="69">
         <v>2021</v>
       </c>
@@ -48854,7 +48854,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="422" t="s">
+      <c r="A57" s="415" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="20">
@@ -48874,7 +48874,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="423"/>
+      <c r="A58" s="416"/>
       <c r="B58" s="20">
         <v>2007</v>
       </c>
@@ -48892,7 +48892,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="423"/>
+      <c r="A59" s="416"/>
       <c r="B59" s="20">
         <v>2014</v>
       </c>
@@ -48910,7 +48910,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="424"/>
+      <c r="A60" s="431"/>
       <c r="B60" s="20">
         <v>2021</v>
       </c>
@@ -48928,7 +48928,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="419" t="s">
+      <c r="A61" s="412" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="7">
@@ -48948,7 +48948,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="420"/>
+      <c r="A62" s="413"/>
       <c r="B62" s="7">
         <v>2007</v>
       </c>
@@ -48966,7 +48966,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="420"/>
+      <c r="A63" s="413"/>
       <c r="B63" s="7">
         <v>2014</v>
       </c>
@@ -48984,7 +48984,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="421"/>
+      <c r="A64" s="414"/>
       <c r="B64" s="69">
         <v>2021</v>
       </c>
@@ -49002,7 +49002,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="422" t="s">
+      <c r="A65" s="415" t="s">
         <v>22</v>
       </c>
       <c r="B65" s="20">
@@ -49022,7 +49022,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="423"/>
+      <c r="A66" s="416"/>
       <c r="B66" s="20">
         <v>2007</v>
       </c>
@@ -49040,7 +49040,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="423"/>
+      <c r="A67" s="416"/>
       <c r="B67" s="20">
         <v>2014</v>
       </c>
@@ -49058,7 +49058,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="425"/>
+      <c r="A68" s="417"/>
       <c r="B68" s="24">
         <v>2021</v>
       </c>
@@ -49186,10 +49186,10 @@
       <c r="B77" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="C77" s="445" t="s">
+      <c r="C77" s="439" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="430" t="s">
+      <c r="D77" s="422" t="s">
         <v>216</v>
       </c>
       <c r="E77" s="11" t="s">
@@ -49205,7 +49205,7 @@
         <v>361</v>
       </c>
       <c r="C78" s="470"/>
-      <c r="D78" s="431"/>
+      <c r="D78" s="423"/>
       <c r="E78" s="30" t="s">
         <v>51</v>
       </c>
